--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2768457064719883</v>
+        <v>0.2768457064720025</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1854332490889021</v>
+        <v>0.1854332490890869</v>
       </c>
       <c r="E2">
-        <v>0.4666523901902195</v>
+        <v>0.4666523901901911</v>
       </c>
       <c r="F2">
-        <v>8.49111362083255</v>
+        <v>8.491113620832493</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5300715090350963</v>
+        <v>0.530071509035082</v>
       </c>
       <c r="J2">
-        <v>13.16928324705819</v>
+        <v>13.1692832470581</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2404113686815492</v>
+        <v>0.2404113686817482</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1399253465914825</v>
+        <v>0.1399253465914398</v>
       </c>
       <c r="E3">
-        <v>0.383372067279538</v>
+        <v>0.3833720672795806</v>
       </c>
       <c r="F3">
-        <v>6.828315119221259</v>
+        <v>6.828315119221372</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4297735954646171</v>
+        <v>0.42977359546461</v>
       </c>
       <c r="J3">
-        <v>10.99441147519516</v>
+        <v>10.99441147519519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2185499609435908</v>
+        <v>0.2185499609433634</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1170958622168854</v>
+        <v>0.1170958622166722</v>
       </c>
       <c r="E4">
-        <v>0.3374554084447183</v>
+        <v>0.337455408444697</v>
       </c>
       <c r="F4">
         <v>5.946570173076765</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3754805408662207</v>
+        <v>0.375480540866171</v>
       </c>
       <c r="J4">
-        <v>9.764337761937298</v>
+        <v>9.764337761937412</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209742577442853</v>
+        <v>0.209742577442654</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1087081968284238</v>
+        <v>0.1087081968280685</v>
       </c>
       <c r="E5">
-        <v>0.3196730440339408</v>
+        <v>0.3196730440339763</v>
       </c>
       <c r="F5">
-        <v>5.612350687758749</v>
+        <v>5.61235068775872</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3546551702972494</v>
+        <v>0.3546551702972351</v>
       </c>
       <c r="J5">
         <v>9.28181646230891</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2082856012929568</v>
+        <v>0.2082856012929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1073626626508428</v>
+        <v>0.1073626626510773</v>
       </c>
       <c r="E6">
-        <v>0.3167680138464064</v>
+        <v>0.3167680138464135</v>
       </c>
       <c r="F6">
         <v>5.55815233369043</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3512639494610639</v>
+        <v>0.351263949461071</v>
       </c>
       <c r="J6">
-        <v>9.202655398788977</v>
+        <v>9.202655398788949</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2184308008496743</v>
+        <v>0.2184308008494753</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1169794158149813</v>
+        <v>0.1169794158147397</v>
       </c>
       <c r="E7">
-        <v>0.3372122223572518</v>
+        <v>0.3372122223572447</v>
       </c>
       <c r="F7">
-        <v>5.941971369247284</v>
+        <v>5.941971369247341</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3751949700367518</v>
+        <v>0.3751949700367874</v>
       </c>
       <c r="J7">
-        <v>9.757762444865136</v>
+        <v>9.757762444865278</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2641582297060125</v>
+        <v>0.2641582297060836</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1683988181689386</v>
+        <v>0.1683988181685976</v>
       </c>
       <c r="E8">
         <v>0.4365634661170574</v>
       </c>
       <c r="F8">
-        <v>7.88136401225438</v>
+        <v>7.881364012254323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4935696414650153</v>
+        <v>0.4935696414649939</v>
       </c>
       <c r="J8">
         <v>12.39168757631396</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E9">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F9">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J9">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E10">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F10">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J10">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E11">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F11">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J11">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E12">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F12">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J12">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E13">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F13">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J13">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E14">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F14">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J14">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E15">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F15">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J15">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E16">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F16">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J16">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E17">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F17">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J17">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E18">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F18">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J18">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E19">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F19">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J19">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E20">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F20">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J20">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E21">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F21">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J21">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E22">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F22">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J22">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E23">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F23">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J23">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E24">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F24">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J24">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3600200584290008</v>
+        <v>0.3600200584289581</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3463577449499979</v>
+        <v>0.3463577449500974</v>
       </c>
       <c r="E25">
-        <v>0.7101309464143952</v>
+        <v>0.7101309464143597</v>
       </c>
       <c r="F25">
-        <v>13.75233358525188</v>
+        <v>13.75233358525151</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8358770844597174</v>
+        <v>0.8358770844597387</v>
       </c>
       <c r="J25">
-        <v>19.13138218548454</v>
+        <v>19.13138218548437</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2768457064720025</v>
+        <v>0.2768457064719883</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1854332490890869</v>
+        <v>0.1854332490889021</v>
       </c>
       <c r="E2">
-        <v>0.4666523901901911</v>
+        <v>0.4666523901902195</v>
       </c>
       <c r="F2">
-        <v>8.491113620832493</v>
+        <v>8.49111362083255</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.530071509035082</v>
+        <v>0.5300715090350963</v>
       </c>
       <c r="J2">
-        <v>13.1692832470581</v>
+        <v>13.16928324705819</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2404113686817482</v>
+        <v>0.2404113686815492</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1399253465914398</v>
+        <v>0.1399253465914825</v>
       </c>
       <c r="E3">
-        <v>0.3833720672795806</v>
+        <v>0.383372067279538</v>
       </c>
       <c r="F3">
-        <v>6.828315119221372</v>
+        <v>6.828315119221259</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.42977359546461</v>
+        <v>0.4297735954646171</v>
       </c>
       <c r="J3">
-        <v>10.99441147519519</v>
+        <v>10.99441147519516</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2185499609433634</v>
+        <v>0.2185499609435908</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1170958622166722</v>
+        <v>0.1170958622168854</v>
       </c>
       <c r="E4">
-        <v>0.337455408444697</v>
+        <v>0.3374554084447183</v>
       </c>
       <c r="F4">
         <v>5.946570173076765</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.375480540866171</v>
+        <v>0.3754805408662207</v>
       </c>
       <c r="J4">
-        <v>9.764337761937412</v>
+        <v>9.764337761937298</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209742577442654</v>
+        <v>0.209742577442853</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1087081968280685</v>
+        <v>0.1087081968284238</v>
       </c>
       <c r="E5">
-        <v>0.3196730440339763</v>
+        <v>0.3196730440339408</v>
       </c>
       <c r="F5">
-        <v>5.61235068775872</v>
+        <v>5.612350687758749</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3546551702972351</v>
+        <v>0.3546551702972494</v>
       </c>
       <c r="J5">
         <v>9.28181646230891</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2082856012929</v>
+        <v>0.2082856012929568</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1073626626510773</v>
+        <v>0.1073626626508428</v>
       </c>
       <c r="E6">
-        <v>0.3167680138464135</v>
+        <v>0.3167680138464064</v>
       </c>
       <c r="F6">
         <v>5.55815233369043</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.351263949461071</v>
+        <v>0.3512639494610639</v>
       </c>
       <c r="J6">
-        <v>9.202655398788949</v>
+        <v>9.202655398788977</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2184308008494753</v>
+        <v>0.2184308008496743</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1169794158147397</v>
+        <v>0.1169794158149813</v>
       </c>
       <c r="E7">
-        <v>0.3372122223572447</v>
+        <v>0.3372122223572518</v>
       </c>
       <c r="F7">
-        <v>5.941971369247341</v>
+        <v>5.941971369247284</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3751949700367874</v>
+        <v>0.3751949700367518</v>
       </c>
       <c r="J7">
-        <v>9.757762444865278</v>
+        <v>9.757762444865136</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2641582297060836</v>
+        <v>0.2641582297060125</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1683988181685976</v>
+        <v>0.1683988181689386</v>
       </c>
       <c r="E8">
         <v>0.4365634661170574</v>
       </c>
       <c r="F8">
-        <v>7.881364012254323</v>
+        <v>7.88136401225438</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4935696414649939</v>
+        <v>0.4935696414650153</v>
       </c>
       <c r="J8">
         <v>12.39168757631396</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E9">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F9">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J9">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E10">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F10">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J10">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E11">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F11">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J11">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E12">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F12">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J12">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E13">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F13">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J13">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E14">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F14">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J14">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E15">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F15">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J15">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E16">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F16">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J16">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E17">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F17">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J17">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E18">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F18">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J18">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E19">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F19">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J19">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E20">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F20">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J20">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E21">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F21">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J21">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E22">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F22">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J22">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E23">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F23">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J23">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E24">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F24">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J24">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3600200584289581</v>
+        <v>0.3600200584290008</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3463577449500974</v>
+        <v>0.3463577449499979</v>
       </c>
       <c r="E25">
-        <v>0.7101309464143597</v>
+        <v>0.7101309464143952</v>
       </c>
       <c r="F25">
-        <v>13.75233358525151</v>
+        <v>13.75233358525188</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8358770844597387</v>
+        <v>0.8358770844597174</v>
       </c>
       <c r="J25">
-        <v>19.13138218548437</v>
+        <v>19.13138218548454</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2768457064719883</v>
+        <v>0.2764030601818206</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1854332490889021</v>
+        <v>0.1763284968491234</v>
       </c>
       <c r="E2">
-        <v>0.4666523901902195</v>
+        <v>0.4611887490964435</v>
       </c>
       <c r="F2">
-        <v>8.49111362083255</v>
+        <v>8.325002453090832</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006183387700364358</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5300715090350963</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.16928324705819</v>
+        <v>0.5216259720636387</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.98764164546409</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2404113686815492</v>
+        <v>0.2400611012117793</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1399253465914825</v>
+        <v>0.1334682786255286</v>
       </c>
       <c r="E3">
-        <v>0.383372067279538</v>
+        <v>0.3792896390265881</v>
       </c>
       <c r="F3">
-        <v>6.828315119221259</v>
+        <v>6.715631757282779</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006520361260819703</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4297735954646171</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.99441147519516</v>
+        <v>0.4235937411210529</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.85180142651924</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2185499609435908</v>
+        <v>0.2182480809880474</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1170958622168854</v>
+        <v>0.1120275039623664</v>
       </c>
       <c r="E4">
-        <v>0.3374554084447183</v>
+        <v>0.3340180090110607</v>
       </c>
       <c r="F4">
-        <v>5.946570173076765</v>
+        <v>5.860915119376301</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006717246702636626</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3754805408662207</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.764337761937298</v>
+        <v>0.3703915078984679</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.641487045593891</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209742577442853</v>
+        <v>0.209459097282263</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1087081968284238</v>
+        <v>0.1041693922523024</v>
       </c>
       <c r="E5">
-        <v>0.3196730440339408</v>
+        <v>0.3164668591003021</v>
       </c>
       <c r="F5">
-        <v>5.612350687758749</v>
+        <v>5.536815045523014</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006795980695157413</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3546551702972494</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.28181646230891</v>
+        <v>0.3499639750860837</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.166364744454114</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2082856012929568</v>
+        <v>0.2080051120807695</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1073626626508428</v>
+        <v>0.1029100534388832</v>
       </c>
       <c r="E6">
-        <v>0.3167680138464064</v>
+        <v>0.3135986862680156</v>
       </c>
       <c r="F6">
-        <v>5.55815233369043</v>
+        <v>5.48425392252355</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006808986512758052</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3512639494610639</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.202655398788977</v>
+        <v>0.3466365562219025</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.088400769335436</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2184308008496743</v>
+        <v>0.2181291736489754</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1169794158149813</v>
+        <v>0.1119183246405129</v>
       </c>
       <c r="E7">
-        <v>0.3372122223572518</v>
+        <v>0.3337780513415325</v>
       </c>
       <c r="F7">
-        <v>5.941971369247284</v>
+        <v>5.856455890372814</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006718313541504625</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3751949700367518</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.757762444865136</v>
+        <v>0.3701114646914121</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.635013779984718</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2641582297060125</v>
+        <v>0.2637498036031616</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1683988181689386</v>
+        <v>0.1602752181026261</v>
       </c>
       <c r="E8">
-        <v>0.4365634661170574</v>
+        <v>0.4316343606524242</v>
       </c>
       <c r="F8">
-        <v>7.88136401225438</v>
+        <v>7.735332730492019</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006302424437481639</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4935696414650153</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.39168757631396</v>
+        <v>0.4859915391799419</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.22471040410812</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E9">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F9">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E10">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F10">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E11">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F11">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E12">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F12">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E13">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F13">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E14">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F14">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E15">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F15">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E16">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F16">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E17">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F17">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E18">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F18">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E19">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F19">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E20">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F20">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E21">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F21">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E22">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F22">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E23">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F23">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E24">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F24">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3600200584290008</v>
+        <v>0.3592287416299911</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3463577449499979</v>
+        <v>0.3271707019080168</v>
       </c>
       <c r="E25">
-        <v>0.7101309464143952</v>
+        <v>0.6978505968699551</v>
       </c>
       <c r="F25">
-        <v>13.75233358525188</v>
+        <v>13.36434802562243</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005311394861013222</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8358770844597174</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.13138218548454</v>
+        <v>0.8169133536572915</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.78791064464201</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2764030601818206</v>
+        <v>2.311516525563491</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1763284968491234</v>
+        <v>0.3304666925509139</v>
       </c>
       <c r="E2">
-        <v>0.4611887490964435</v>
+        <v>3.679453136683065</v>
       </c>
       <c r="F2">
-        <v>8.325002453090832</v>
+        <v>7.032304078116255</v>
       </c>
       <c r="G2">
-        <v>0.0006183387700364358</v>
+        <v>0.0006834726785872956</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5216259720636387</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.98764164546409</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.487588183066237</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8982790927138851</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2400611012117793</v>
+        <v>2.007422440683229</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1334682786255286</v>
+        <v>0.2783395874560171</v>
       </c>
       <c r="E3">
-        <v>0.3792896390265881</v>
+        <v>3.145242799424381</v>
       </c>
       <c r="F3">
-        <v>6.715631757282779</v>
+        <v>5.937908736955791</v>
       </c>
       <c r="G3">
-        <v>0.0006520361260819703</v>
+        <v>0.00070644721493549</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4235937411210529</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>10.85180142651924</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.267734189206294</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7716346019977962</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2182480809880474</v>
+        <v>1.827005603597257</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1120275039623664</v>
+        <v>0.2492873138099299</v>
       </c>
       <c r="E4">
-        <v>0.3340180090110607</v>
+        <v>2.831415425811301</v>
       </c>
       <c r="F4">
-        <v>5.860915119376301</v>
+        <v>5.31566310709087</v>
       </c>
       <c r="G4">
-        <v>0.0006717246702636626</v>
+        <v>0.00072046020261179</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3703915078984679</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.641487045593891</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.137943568717219</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6966546326041865</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209459097282263</v>
+        <v>1.754780746258035</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1041693922523024</v>
+        <v>0.2380446637109088</v>
       </c>
       <c r="E5">
-        <v>0.3164668591003021</v>
+        <v>2.706260108293165</v>
       </c>
       <c r="F5">
-        <v>5.536815045523014</v>
+        <v>5.07211418982817</v>
       </c>
       <c r="G5">
-        <v>0.0006795980695157413</v>
+        <v>0.0007261721975848895</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3499639750860837</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.166364744454114</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.086086695483033</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6666613940938788</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2080051120807695</v>
+        <v>1.742858847040225</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1029100534388832</v>
+        <v>0.2362102034002049</v>
       </c>
       <c r="E6">
-        <v>0.3135986862680156</v>
+        <v>2.685622500593155</v>
       </c>
       <c r="F6">
-        <v>5.48425392252355</v>
+        <v>5.032216370670284</v>
       </c>
       <c r="G6">
-        <v>0.0006808986512758052</v>
+        <v>0.0007271213927883474</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3466365562219025</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.088400769335436</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.077531459657166</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6617114893686704</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2181291736489754</v>
+        <v>1.826026642220796</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1119183246405129</v>
+        <v>0.2491334455212808</v>
       </c>
       <c r="E7">
-        <v>0.3337780513415325</v>
+        <v>2.829717433058818</v>
       </c>
       <c r="F7">
-        <v>5.856455890372814</v>
+        <v>5.31234081196331</v>
       </c>
       <c r="G7">
-        <v>0.0006718313541504625</v>
+        <v>0.0007205372011386956</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3701114646914121</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9.635013779984718</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.137240340909983</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6962480194792775</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2637498036031616</v>
+        <v>2.205164414718297</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1602752181026261</v>
+        <v>0.311779916796965</v>
       </c>
       <c r="E8">
-        <v>0.4316343606524242</v>
+        <v>3.491741326255948</v>
       </c>
       <c r="F8">
-        <v>7.735332730492019</v>
+        <v>6.642942831830879</v>
       </c>
       <c r="G8">
-        <v>0.0006302424437481639</v>
+        <v>0.0006914308425449711</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4859915391799419</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.22471040410812</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.410516910442453</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8539420481861697</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3592287416299911</v>
+        <v>3.016121975781402</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3271707019080168</v>
+        <v>0.4674438142073427</v>
       </c>
       <c r="E9">
-        <v>0.6978505968699551</v>
+        <v>4.956403034770148</v>
       </c>
       <c r="F9">
-        <v>13.36434802562243</v>
+        <v>9.804565939368644</v>
       </c>
       <c r="G9">
-        <v>0.0005311394861013222</v>
+        <v>0.0006320145105171373</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.00485782195139</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.193743297629354</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3592287416299911</v>
+        <v>3.690456652796229</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3271707019080168</v>
+        <v>0.6232955969221337</v>
       </c>
       <c r="E10">
-        <v>0.6978505968699551</v>
+        <v>6.258773349168223</v>
       </c>
       <c r="F10">
-        <v>13.36434802562243</v>
+        <v>12.82226923971319</v>
       </c>
       <c r="G10">
-        <v>0.0005311394861013222</v>
+        <v>0.0005833054982538611</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.515359001258162</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.480599426771349</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3592287416299911</v>
+        <v>4.030574721667847</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3271707019080168</v>
+        <v>0.7134103423762781</v>
       </c>
       <c r="E11">
-        <v>0.6978505968699551</v>
+        <v>6.960297746480194</v>
       </c>
       <c r="F11">
-        <v>13.36434802562243</v>
+        <v>14.51399594272459</v>
       </c>
       <c r="G11">
-        <v>0.0005311394861013222</v>
+        <v>0.0005583404995680845</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.781117251227727</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.62749195522467</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3592287416299911</v>
+        <v>4.166982589608835</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3271707019080168</v>
+        <v>0.7521811404034224</v>
       </c>
       <c r="E12">
-        <v>0.6978505968699551</v>
+        <v>7.252759868428939</v>
       </c>
       <c r="F12">
-        <v>13.36434802562243</v>
+        <v>15.23115477514494</v>
       </c>
       <c r="G12">
-        <v>0.0005311394861013222</v>
+        <v>0.0005481702237897235</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.889710107980505</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.686942307546573</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3592287416299911</v>
+        <v>4.13719302834113</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3271707019080168</v>
+        <v>0.7435739836865594</v>
       </c>
       <c r="E13">
-        <v>0.6978505968699551</v>
+        <v>7.188280994901305</v>
       </c>
       <c r="F13">
-        <v>13.36434802562243</v>
+        <v>15.07247943087356</v>
       </c>
       <c r="G13">
-        <v>0.0005311394861013222</v>
+        <v>0.0005504008129597011</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.865885938093498</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.673929979908991</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3592287416299911</v>
+        <v>4.041619439431543</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3271707019080168</v>
+        <v>0.7164896491664763</v>
       </c>
       <c r="E14">
-        <v>0.6978505968699551</v>
+        <v>6.983719109030517</v>
       </c>
       <c r="F14">
-        <v>13.36434802562243</v>
+        <v>14.57118320144201</v>
       </c>
       <c r="G14">
-        <v>0.0005311394861013222</v>
+        <v>0.0005575210075011056</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.789863419770853</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.632293117757143</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3592287416299911</v>
+        <v>3.984193403433494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3271707019080168</v>
+        <v>0.7005900672531027</v>
       </c>
       <c r="E15">
-        <v>0.6978505968699551</v>
+        <v>6.862415705668695</v>
       </c>
       <c r="F15">
-        <v>13.36434802562243</v>
+        <v>14.27547497694354</v>
       </c>
       <c r="G15">
-        <v>0.0005311394861013222</v>
+        <v>0.0005617748808915653</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.744473848873753</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.607352758187815</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3592287416299911</v>
+        <v>3.669094007496369</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3271707019080168</v>
+        <v>0.6179201205360414</v>
       </c>
       <c r="E16">
-        <v>0.6978505968699551</v>
+        <v>6.215871030123822</v>
       </c>
       <c r="F16">
-        <v>13.36434802562243</v>
+        <v>12.72020552982542</v>
       </c>
       <c r="G16">
-        <v>0.0005311394861013222</v>
+        <v>0.0005848593808060145</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.498879023232831</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.471429937369166</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3592287416299911</v>
+        <v>3.48575328507593</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3271707019080168</v>
+        <v>0.5730466146980291</v>
       </c>
       <c r="E17">
-        <v>0.6978505968699551</v>
+        <v>5.85259036768926</v>
       </c>
       <c r="F17">
-        <v>13.36434802562243</v>
+        <v>11.86285584030944</v>
       </c>
       <c r="G17">
-        <v>0.0005311394861013222</v>
+        <v>0.000598148662316377</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.358354322470547</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.392978079792258</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3592287416299911</v>
+        <v>3.383206829576238</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3271707019080168</v>
+        <v>0.5488869922249933</v>
       </c>
       <c r="E18">
-        <v>0.6978505968699551</v>
+        <v>5.652970075327573</v>
       </c>
       <c r="F18">
-        <v>13.36434802562243</v>
+        <v>11.39717779816297</v>
       </c>
       <c r="G18">
-        <v>0.0005311394861013222</v>
+        <v>0.0006055543814390879</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.28042190844792</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.349276005260378</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3592287416299911</v>
+        <v>3.348929991486273</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3271707019080168</v>
+        <v>0.5409547548146065</v>
       </c>
       <c r="E19">
-        <v>0.6978505968699551</v>
+        <v>5.586774496799137</v>
       </c>
       <c r="F19">
-        <v>13.36434802562243</v>
+        <v>11.24363614564285</v>
       </c>
       <c r="G19">
-        <v>0.0005311394861013222</v>
+        <v>0.0006080269192631838</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.254471878297437</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.334694786183874</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3592287416299911</v>
+        <v>3.504955427315508</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3271707019080168</v>
+        <v>0.5776436195931467</v>
       </c>
       <c r="E20">
-        <v>0.6978505968699551</v>
+        <v>5.890243444418473</v>
       </c>
       <c r="F20">
-        <v>13.36434802562243</v>
+        <v>11.95113332585996</v>
       </c>
       <c r="G20">
-        <v>0.0005311394861013222</v>
+        <v>0.0005967601279875611</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.37299864332644</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.401175092642305</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3592287416299911</v>
+        <v>4.069450221469481</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3271707019080168</v>
+        <v>0.7242948382761369</v>
       </c>
       <c r="E21">
-        <v>0.6978505968699551</v>
+        <v>7.042933819525473</v>
       </c>
       <c r="F21">
-        <v>13.36434802562243</v>
+        <v>14.71595929398467</v>
       </c>
       <c r="G21">
-        <v>0.0005311394861013222</v>
+        <v>0.000555453064024072</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.811937653256791</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.644400700046177</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3592287416299911</v>
+        <v>4.486670533150004</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3271707019080168</v>
+        <v>0.8500118960160705</v>
       </c>
       <c r="E22">
-        <v>0.6978505968699551</v>
+        <v>7.969139868433132</v>
       </c>
       <c r="F22">
-        <v>13.36434802562243</v>
+        <v>17.01398543300155</v>
       </c>
       <c r="G22">
-        <v>0.0005311394861013222</v>
+        <v>0.0005238191490623209</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.149701277633</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.827742692199593</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3592287416299911</v>
+        <v>4.257770814766843</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3271707019080168</v>
+        <v>0.7789199508031004</v>
       </c>
       <c r="E23">
-        <v>0.6978505968699551</v>
+        <v>7.451504818635186</v>
       </c>
       <c r="F23">
-        <v>13.36434802562243</v>
+        <v>15.72218041264063</v>
       </c>
       <c r="G23">
-        <v>0.0005311394861013222</v>
+        <v>0.0005413356809136349</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.962715792202488</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.726705979000641</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3592287416299911</v>
+        <v>3.496265406461362</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3271707019080168</v>
+        <v>0.5755603215504834</v>
       </c>
       <c r="E24">
-        <v>0.6978505968699551</v>
+        <v>5.87319238634521</v>
       </c>
       <c r="F24">
-        <v>13.36434802562243</v>
+        <v>11.91114011410625</v>
       </c>
       <c r="G24">
-        <v>0.0005311394861013222</v>
+        <v>0.0005973885959669367</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.366369235239716</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.397464948243993</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3592287416299911</v>
+        <v>2.786543380321461</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3271707019080168</v>
+        <v>0.4201846594266385</v>
       </c>
       <c r="E25">
-        <v>0.6978505968699551</v>
+        <v>4.532907712159613</v>
       </c>
       <c r="F25">
-        <v>13.36434802562243</v>
+        <v>8.862709660459018</v>
       </c>
       <c r="G25">
-        <v>0.0005311394861013222</v>
+        <v>0.0006486162657132449</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8169133536572915</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.78791064464201</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.834853044330146</v>
       </c>
       <c r="M25">
+        <v>1.097090166263143</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.311516525563491</v>
+        <v>0.2655652280410692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3304666925509139</v>
+        <v>0.1236491676148148</v>
       </c>
       <c r="E2">
-        <v>3.679453136683065</v>
+        <v>0.08783905025119054</v>
       </c>
       <c r="F2">
-        <v>7.032304078116255</v>
+        <v>0.8021599330248748</v>
       </c>
       <c r="G2">
-        <v>0.0006834726785872956</v>
+        <v>0.0008122345227964931</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08919552581946277</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.89517962544673</v>
       </c>
       <c r="L2">
-        <v>1.487588183066237</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8982790927138851</v>
+        <v>0.4911000694247249</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.901527230948773</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.007422440683229</v>
+        <v>0.2322599359344224</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2783395874560171</v>
+        <v>0.1115119921125398</v>
       </c>
       <c r="E3">
-        <v>3.145242799424381</v>
+        <v>0.08243048255340213</v>
       </c>
       <c r="F3">
-        <v>5.937908736955791</v>
+        <v>0.7778755158525783</v>
       </c>
       <c r="G3">
-        <v>0.00070644721493549</v>
+        <v>0.0008164834046201251</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08680927965729524</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.654713227183947</v>
       </c>
       <c r="L3">
-        <v>1.267734189206294</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7716346019977962</v>
+        <v>0.4270977172112254</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.869966923876802</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.827005603597257</v>
+        <v>0.2119728923949111</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2492873138099299</v>
+        <v>0.1041443841569105</v>
       </c>
       <c r="E4">
-        <v>2.831415425811301</v>
+        <v>0.07922175315342628</v>
       </c>
       <c r="F4">
-        <v>5.31566310709087</v>
+        <v>0.7646097500527063</v>
       </c>
       <c r="G4">
-        <v>0.00072046020261179</v>
+        <v>0.0008191781712697188</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08550692654009495</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.507161740182028</v>
       </c>
       <c r="L4">
-        <v>1.137943568717219</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6966546326041865</v>
+        <v>0.3879438747790402</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.855037825764612</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.754780746258035</v>
+        <v>0.2037426967864775</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2380446637109088</v>
+        <v>0.1011618038930138</v>
       </c>
       <c r="E5">
-        <v>2.706260108293165</v>
+        <v>0.0779409635621704</v>
       </c>
       <c r="F5">
-        <v>5.07211418982817</v>
+        <v>0.7595980670825355</v>
       </c>
       <c r="G5">
-        <v>0.0007261721975848895</v>
+        <v>0.0008202983298250532</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08501535513759961</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.44703622356684</v>
       </c>
       <c r="L5">
-        <v>1.086086695483033</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6666613940938788</v>
+        <v>0.3720176857609729</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.85002099683102</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.742858847040225</v>
+        <v>0.2023781988115587</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2362102034002049</v>
+        <v>0.1006677007687884</v>
       </c>
       <c r="E6">
-        <v>2.685622500593155</v>
+        <v>0.077729867863507</v>
       </c>
       <c r="F6">
-        <v>5.032216370670284</v>
+        <v>0.7587891419503165</v>
       </c>
       <c r="G6">
-        <v>0.0007271213927883474</v>
+        <v>0.0008204856729541804</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08493604380633712</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.437052010252899</v>
       </c>
       <c r="L6">
-        <v>1.077531459657166</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6617114893686704</v>
+        <v>0.3693747325156735</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.849250928088665</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.826026642220796</v>
+        <v>0.2118617525917159</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2491334455212808</v>
+        <v>0.1041040818854029</v>
       </c>
       <c r="E7">
-        <v>2.829717433058818</v>
+        <v>0.07920437330015773</v>
       </c>
       <c r="F7">
-        <v>5.31234081196331</v>
+        <v>0.7645405894886181</v>
       </c>
       <c r="G7">
-        <v>0.0007205372011386956</v>
+        <v>0.0008191931883835294</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08550014083076363</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.506350881655777</v>
       </c>
       <c r="L7">
-        <v>1.137240340909983</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6962480194792775</v>
+        <v>0.3877289786723992</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.854965913817892</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.205164414718297</v>
+        <v>0.2540453917969216</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.311779916796965</v>
+        <v>0.1194457586608877</v>
       </c>
       <c r="E8">
-        <v>3.491741326255948</v>
+        <v>0.08595002754341508</v>
       </c>
       <c r="F8">
-        <v>6.642942831830879</v>
+        <v>0.7934332517368077</v>
       </c>
       <c r="G8">
-        <v>0.0006914308425449711</v>
+        <v>0.0008136819543020923</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08833784906677877</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.812233661228333</v>
       </c>
       <c r="L8">
-        <v>1.410516910442453</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8539420481861697</v>
+        <v>0.4689979267303812</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.889689783424416</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.016121975781402</v>
+        <v>0.3382479289879399</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4674438142073427</v>
+        <v>0.1502763176754058</v>
       </c>
       <c r="E9">
-        <v>4.956403034770148</v>
+        <v>0.1001359284083847</v>
       </c>
       <c r="F9">
-        <v>9.804565939368644</v>
+        <v>0.8640736825391855</v>
       </c>
       <c r="G9">
-        <v>0.0006320145105171373</v>
+        <v>0.0008035366696734421</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0952802175770131</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.413884663114146</v>
       </c>
       <c r="L9">
-        <v>2.00485782195139</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.193743297629354</v>
+        <v>0.6298454793950796</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.995565745201958</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.690456652796229</v>
+        <v>0.4012998019118044</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6232955969221337</v>
+        <v>0.1734933067221505</v>
       </c>
       <c r="E10">
-        <v>6.258773349168223</v>
+        <v>0.1112431312074627</v>
       </c>
       <c r="F10">
-        <v>12.82226923971319</v>
+        <v>0.9258764948963289</v>
       </c>
       <c r="G10">
-        <v>0.0005833054982538611</v>
+        <v>0.000796457574639277</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1013477693759839</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.858644554563085</v>
       </c>
       <c r="L10">
-        <v>2.515359001258162</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.480599426771349</v>
+        <v>0.7494361969558341</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.100064636153945</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.030574721667847</v>
+        <v>0.4303094746932317</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7134103423762781</v>
+        <v>0.1842048199227264</v>
       </c>
       <c r="E11">
-        <v>6.960297746480194</v>
+        <v>0.1164688773789813</v>
       </c>
       <c r="F11">
-        <v>14.51399594272459</v>
+        <v>0.9564726611646108</v>
       </c>
       <c r="G11">
-        <v>0.0005583404995680845</v>
+        <v>0.0007933115969368578</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1043483939009704</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.061963778254665</v>
       </c>
       <c r="L11">
-        <v>2.781117251227727</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.62749195522467</v>
+        <v>0.8042729716450907</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.154285354504651</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.166982589608835</v>
+        <v>0.4413476167013499</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7521811404034224</v>
+        <v>0.1882849065126351</v>
       </c>
       <c r="E12">
-        <v>7.252759868428939</v>
+        <v>0.1184747543821238</v>
       </c>
       <c r="F12">
-        <v>15.23115477514494</v>
+        <v>0.9684452012762108</v>
       </c>
       <c r="G12">
-        <v>0.0005481702237897235</v>
+        <v>0.0007921303842389194</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1055219561428871</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.139133599156708</v>
       </c>
       <c r="L12">
-        <v>2.889710107980505</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.686942307546573</v>
+        <v>0.8251117173431197</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.175857970219823</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.13719302834113</v>
+        <v>0.4389679105237434</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7435739836865594</v>
+        <v>0.1874050868221531</v>
       </c>
       <c r="E13">
-        <v>7.188280994901305</v>
+        <v>0.1180415166248281</v>
       </c>
       <c r="F13">
-        <v>15.07247943087356</v>
+        <v>0.9658490189207356</v>
       </c>
       <c r="G13">
-        <v>0.0005504008129597011</v>
+        <v>0.0007923843401389344</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1052675046442744</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.122505241692807</v>
       </c>
       <c r="L13">
-        <v>2.865885938093498</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.673929979908991</v>
+        <v>0.8206202817231514</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.171164320900004</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.041619439431543</v>
+        <v>0.4312164964523078</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7164896491664763</v>
+        <v>0.1845399989463203</v>
       </c>
       <c r="E14">
-        <v>6.983719109030517</v>
+        <v>0.1166333482686426</v>
       </c>
       <c r="F14">
-        <v>14.57118320144201</v>
+        <v>0.9574497271684095</v>
       </c>
       <c r="G14">
-        <v>0.0005575210075011056</v>
+        <v>0.0007932142189408324</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1044441799540223</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.068308828415724</v>
       </c>
       <c r="L14">
-        <v>2.789863419770853</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.632293117757143</v>
+        <v>0.8059858548806744</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.156038819304655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.984193403433494</v>
+        <v>0.4264755867706214</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7005900672531027</v>
+        <v>0.1827882295241068</v>
       </c>
       <c r="E15">
-        <v>6.862415705668695</v>
+        <v>0.1157743862679155</v>
       </c>
       <c r="F15">
-        <v>14.27547497694354</v>
+        <v>0.9523561593579757</v>
       </c>
       <c r="G15">
-        <v>0.0005617748808915653</v>
+        <v>0.0007937238408900266</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1039448101077411</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.035136101957107</v>
       </c>
       <c r="L15">
-        <v>2.744473848873753</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.607352758187815</v>
+        <v>0.7970317200578876</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.146911961904863</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.669094007496369</v>
+        <v>0.399411018102569</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6179201205360414</v>
+        <v>0.1727964951634391</v>
       </c>
       <c r="E16">
-        <v>6.215871030123822</v>
+        <v>0.1109052758311613</v>
       </c>
       <c r="F16">
-        <v>12.72020552982542</v>
+        <v>0.9239293796636474</v>
       </c>
       <c r="G16">
-        <v>0.0005848593808060145</v>
+        <v>0.0007966646180985292</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1011567376157956</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.845380049370533</v>
       </c>
       <c r="L16">
-        <v>2.498879023232831</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.471429937369166</v>
+        <v>0.745862127992865</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.096662319735771</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.48575328507593</v>
+        <v>0.382895541918856</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5730466146980291</v>
+        <v>0.166706890149996</v>
       </c>
       <c r="E17">
-        <v>5.85259036768926</v>
+        <v>0.1079640106715729</v>
       </c>
       <c r="F17">
-        <v>11.86285584030944</v>
+        <v>0.9071464550833781</v>
       </c>
       <c r="G17">
-        <v>0.000598148662316377</v>
+        <v>0.0007984873229266369</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09950980224687811</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.7292492445861</v>
       </c>
       <c r="L17">
-        <v>2.358354322470547</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.392978079792258</v>
+        <v>0.7145898999511289</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.067602194071156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.383206829576238</v>
+        <v>0.3734266933036707</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5488869922249933</v>
+        <v>0.1632182805882678</v>
       </c>
       <c r="E18">
-        <v>5.652970075327573</v>
+        <v>0.1062884229299996</v>
       </c>
       <c r="F18">
-        <v>11.39717779816297</v>
+        <v>0.8977250592056976</v>
       </c>
       <c r="G18">
-        <v>0.0006055543814390879</v>
+        <v>0.000799542729128309</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09858498850322661</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.662545397505198</v>
       </c>
       <c r="L18">
-        <v>2.28042190844792</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.349276005260378</v>
+        <v>0.6966431299599876</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.051511583878806</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.348929991486273</v>
+        <v>0.3702257580198705</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5409547548146065</v>
+        <v>0.1620394293306475</v>
       </c>
       <c r="E19">
-        <v>5.586774496799137</v>
+        <v>0.1057238093907706</v>
       </c>
       <c r="F19">
-        <v>11.24363614564285</v>
+        <v>0.8945740657682109</v>
       </c>
       <c r="G19">
-        <v>0.0006080269192631838</v>
+        <v>0.0007999012970525242</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09827564053639293</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.639975347232081</v>
       </c>
       <c r="L19">
-        <v>2.254471878297437</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.334694786183874</v>
+        <v>0.6905732494979731</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.046168433715764</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.504955427315508</v>
+        <v>0.3846504539188516</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5776436195931467</v>
+        <v>0.167353677005508</v>
       </c>
       <c r="E20">
-        <v>5.890243444418473</v>
+        <v>0.1082754270149735</v>
       </c>
       <c r="F20">
-        <v>11.95113332585996</v>
+        <v>0.9089088390242921</v>
       </c>
       <c r="G20">
-        <v>0.0005967601279875611</v>
+        <v>0.0007982925689307299</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.09968277779601209</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.741601857184662</v>
       </c>
       <c r="L20">
-        <v>2.37299864332644</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.401175092642305</v>
+        <v>0.7179146472224502</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.070630556465858</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.069450221469481</v>
+        <v>0.4334917934955911</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7242948382761369</v>
+        <v>0.1853808777260326</v>
       </c>
       <c r="E21">
-        <v>7.042933819525473</v>
+        <v>0.1170462110077786</v>
       </c>
       <c r="F21">
-        <v>14.71595929398467</v>
+        <v>0.9599060682516836</v>
       </c>
       <c r="G21">
-        <v>0.000555453064024072</v>
+        <v>0.0007929701941678896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1046849756920807</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.084222532824128</v>
       </c>
       <c r="L21">
-        <v>2.811937653256791</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.644400700046177</v>
+        <v>0.8102822625286024</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.160452647112123</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.486670533150004</v>
+        <v>0.4657232034191878</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8500118960160705</v>
+        <v>0.1973030147768355</v>
       </c>
       <c r="E22">
-        <v>7.969139868433132</v>
+        <v>0.1229369010483232</v>
       </c>
       <c r="F22">
-        <v>17.01398543300155</v>
+        <v>0.9955035198329227</v>
       </c>
       <c r="G22">
-        <v>0.0005238191490623209</v>
+        <v>0.0007895502867243268</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1081729678371488</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.309195952027665</v>
       </c>
       <c r="L22">
-        <v>3.149701277633</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.827742692199593</v>
+        <v>0.8710824347599555</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.225262152487318</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.257770814766843</v>
+        <v>0.4484902470378955</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7789199508031004</v>
+        <v>0.1909263013917268</v>
       </c>
       <c r="E23">
-        <v>7.451504818635186</v>
+        <v>0.1197776870990594</v>
       </c>
       <c r="F23">
-        <v>15.72218041264063</v>
+        <v>0.9762866218604529</v>
       </c>
       <c r="G23">
-        <v>0.0005413356809136349</v>
+        <v>0.0007913704016589969</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.106290393951852</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.189015230918528</v>
       </c>
       <c r="L23">
-        <v>2.962715792202488</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.726705979000641</v>
+        <v>0.8385888613734238</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.190085617259484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.496265406461362</v>
+        <v>0.3838569772823064</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5755603215504834</v>
+        <v>0.1670612262618931</v>
       </c>
       <c r="E24">
-        <v>5.87319238634521</v>
+        <v>0.1081345879243827</v>
       </c>
       <c r="F24">
-        <v>11.91114011410625</v>
+        <v>0.9081113593678083</v>
       </c>
       <c r="G24">
-        <v>0.0005973885959669367</v>
+        <v>0.0007983805938216231</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.09960450713029445</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.736017052634793</v>
       </c>
       <c r="L24">
-        <v>2.366369235239716</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.397464948243993</v>
+        <v>0.716411429956203</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.06925951966835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.786543380321461</v>
+        <v>0.3152819438639938</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4201846594266385</v>
+        <v>0.1418449755698106</v>
       </c>
       <c r="E25">
-        <v>4.532907712159613</v>
+        <v>0.09618570731954534</v>
       </c>
       <c r="F25">
-        <v>8.862709660459018</v>
+        <v>0.843329897948756</v>
       </c>
       <c r="G25">
-        <v>0.0006486162657132449</v>
+        <v>0.0008062132408629963</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.09324201827960366</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.250767962823886</v>
       </c>
       <c r="L25">
-        <v>1.834853044330146</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.097090166263143</v>
+        <v>0.5861227523464549</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.96251402253165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2655652280410692</v>
+        <v>0.1423106037013184</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1236491676148148</v>
+        <v>0.1697448963614363</v>
       </c>
       <c r="E2">
-        <v>0.08783905025119054</v>
+        <v>0.1564731755020787</v>
       </c>
       <c r="F2">
-        <v>0.8021599330248748</v>
+        <v>1.559342287038866</v>
       </c>
       <c r="G2">
-        <v>0.0008122345227964931</v>
+        <v>0.002474408482442186</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08919552581946277</v>
+        <v>0.1845980772993379</v>
       </c>
       <c r="K2">
-        <v>1.89517962544673</v>
+        <v>0.6267408329052273</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4911000694247249</v>
+        <v>0.2682518545108366</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.901527230948773</v>
+        <v>3.849845266364355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2322599359344224</v>
+        <v>0.1330144244095095</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1115119921125398</v>
+        <v>0.1671367038718614</v>
       </c>
       <c r="E3">
-        <v>0.08243048255340213</v>
+        <v>0.1560147298383896</v>
       </c>
       <c r="F3">
-        <v>0.7778755158525783</v>
+        <v>1.56552637913456</v>
       </c>
       <c r="G3">
-        <v>0.0008164834046201251</v>
+        <v>0.002477202841472538</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08680927965729524</v>
+        <v>0.1853464863728931</v>
       </c>
       <c r="K3">
-        <v>1.654713227183947</v>
+        <v>0.5517257592008491</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4270977172112254</v>
+        <v>0.2500296013090733</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.869966923876802</v>
+        <v>3.874377125917931</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2119728923949111</v>
+        <v>0.1273773673674725</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1041443841569105</v>
+        <v>0.1655945231664901</v>
       </c>
       <c r="E4">
-        <v>0.07922175315342628</v>
+        <v>0.1558024348625224</v>
       </c>
       <c r="F4">
-        <v>0.7646097500527063</v>
+        <v>1.570194383556817</v>
       </c>
       <c r="G4">
-        <v>0.0008191781712697188</v>
+        <v>0.002479010731127067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08550692654009495</v>
+        <v>0.1858982256128989</v>
       </c>
       <c r="K4">
-        <v>1.507161740182028</v>
+        <v>0.5055742526283495</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3879438747790402</v>
+        <v>0.2389000367067027</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.855037825764612</v>
+        <v>3.891704648677916</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2037426967864775</v>
+        <v>0.1250981766461052</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1011618038930138</v>
+        <v>0.1649810464549546</v>
       </c>
       <c r="E5">
-        <v>0.0779409635621704</v>
+        <v>0.1557333510515306</v>
       </c>
       <c r="F5">
-        <v>0.7595980670825355</v>
+        <v>1.572315649587104</v>
       </c>
       <c r="G5">
-        <v>0.0008202983298250532</v>
+        <v>0.002479770700129648</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08501535513759961</v>
+        <v>0.1861462592172174</v>
       </c>
       <c r="K5">
-        <v>1.44703622356684</v>
+        <v>0.4867451006184069</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3720176857609729</v>
+        <v>0.2343797446631086</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.85002099683102</v>
+        <v>3.899335049226693</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2023781988115587</v>
+        <v>0.1247208074859572</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1006677007687884</v>
+        <v>0.164880085687976</v>
       </c>
       <c r="E6">
-        <v>0.077729867863507</v>
+        <v>0.15572293320988</v>
       </c>
       <c r="F6">
-        <v>0.7587891419503165</v>
+        <v>1.572681112539335</v>
       </c>
       <c r="G6">
-        <v>0.0008204856729541804</v>
+        <v>0.002479898297944929</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08493604380633712</v>
+        <v>0.1861888461790073</v>
       </c>
       <c r="K6">
-        <v>1.437052010252899</v>
+        <v>0.4836172352496533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3693747325156735</v>
+        <v>0.2336300732559806</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.849250928088665</v>
+        <v>3.900636448868909</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2118617525917159</v>
+        <v>0.1273465565114407</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1041040818854029</v>
+        <v>0.1655861888770076</v>
       </c>
       <c r="E7">
-        <v>0.07920437330015773</v>
+        <v>0.1558014325694614</v>
       </c>
       <c r="F7">
-        <v>0.7645405894886181</v>
+        <v>1.570222104893162</v>
       </c>
       <c r="G7">
-        <v>0.0008191931883835294</v>
+        <v>0.002479020886256443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08550014083076363</v>
+        <v>0.1859014767535072</v>
       </c>
       <c r="K7">
-        <v>1.506350881655777</v>
+        <v>0.505320403890579</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3877289786723992</v>
+        <v>0.2388390129895797</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.854965913817892</v>
+        <v>3.89180525018196</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2540453917969216</v>
+        <v>0.1390906624479697</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1194457586608877</v>
+        <v>0.1688333348001407</v>
       </c>
       <c r="E8">
-        <v>0.08595002754341508</v>
+        <v>0.1563007594761672</v>
       </c>
       <c r="F8">
-        <v>0.7934332517368077</v>
+        <v>1.561293800236456</v>
       </c>
       <c r="G8">
-        <v>0.0008136819543020923</v>
+        <v>0.002475352895005455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08833784906677877</v>
+        <v>0.1848369942782213</v>
       </c>
       <c r="K8">
-        <v>1.812233661228333</v>
+        <v>0.6008953437470268</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4689979267303812</v>
+        <v>0.2619567355251604</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.889689783424416</v>
+        <v>3.857833641294746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3382479289879399</v>
+        <v>0.1626778301107947</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1502763176754058</v>
+        <v>0.1756684330423042</v>
       </c>
       <c r="E9">
-        <v>0.1001359284083847</v>
+        <v>0.1578278911207462</v>
       </c>
       <c r="F9">
-        <v>0.8640736825391855</v>
+        <v>1.550696923316536</v>
       </c>
       <c r="G9">
-        <v>0.0008035366696734421</v>
+        <v>0.00246888791470906</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0952802175770131</v>
+        <v>0.1834810108745302</v>
       </c>
       <c r="K9">
-        <v>2.413884663114146</v>
+        <v>0.7875496487299358</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6298454793950796</v>
+        <v>0.3077491461840722</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.995565745201958</v>
+        <v>3.80919846068241</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4012998019118044</v>
+        <v>0.1803420342742896</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1734933067221505</v>
+        <v>0.1809721415735481</v>
       </c>
       <c r="E10">
-        <v>0.1112431312074627</v>
+        <v>0.1592828238758592</v>
       </c>
       <c r="F10">
-        <v>0.9258764948963289</v>
+        <v>1.547128097068651</v>
       </c>
       <c r="G10">
-        <v>0.000796457574639277</v>
+        <v>0.002464577427098863</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1013477693759839</v>
+        <v>0.1829306082935105</v>
       </c>
       <c r="K10">
-        <v>2.858644554563085</v>
+        <v>0.9241786514892851</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7494361969558341</v>
+        <v>0.3416635093013412</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.100064636153945</v>
+        <v>3.78444960191635</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4303094746932317</v>
+        <v>0.1884497011099313</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1842048199227264</v>
+        <v>0.1834455681805451</v>
       </c>
       <c r="E11">
-        <v>0.1164688773789813</v>
+        <v>0.1600167961721688</v>
       </c>
       <c r="F11">
-        <v>0.9564726611646108</v>
+        <v>1.546421002019798</v>
       </c>
       <c r="G11">
-        <v>0.0007933115969368578</v>
+        <v>0.002462710927446332</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1043483939009704</v>
+        <v>0.1827770231735073</v>
       </c>
       <c r="K11">
-        <v>3.061963778254665</v>
+        <v>0.986217799202592</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8042729716450907</v>
+        <v>0.3571491577134864</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.154285354504651</v>
+        <v>3.775580300422263</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4413476167013499</v>
+        <v>0.1915301156894884</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1882849065126351</v>
+        <v>0.1843908615254435</v>
       </c>
       <c r="E12">
-        <v>0.1184747543821238</v>
+        <v>0.1603050785956057</v>
       </c>
       <c r="F12">
-        <v>0.9684452012762108</v>
+        <v>1.546285054590541</v>
       </c>
       <c r="G12">
-        <v>0.0007921303842389194</v>
+        <v>0.002462017630495969</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1055219561428871</v>
+        <v>0.182732780395618</v>
       </c>
       <c r="K12">
-        <v>3.139133599156708</v>
+        <v>1.009693120684744</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8251117173431197</v>
+        <v>0.363021270552224</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.175857970219823</v>
+        <v>3.772565608057221</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4389679105237434</v>
+        <v>0.190866241360979</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1874050868221531</v>
+        <v>0.1841868916996248</v>
       </c>
       <c r="E13">
-        <v>0.1180415166248281</v>
+        <v>0.1602425322405985</v>
       </c>
       <c r="F13">
-        <v>0.9658490189207356</v>
+        <v>1.546308470211983</v>
       </c>
       <c r="G13">
-        <v>0.0007923843401389344</v>
+        <v>0.002462166344861069</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1052675046442744</v>
+        <v>0.1827416899667611</v>
       </c>
       <c r="K13">
-        <v>3.122505241692807</v>
+        <v>1.00463808932858</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8206202817231514</v>
+        <v>0.361756253162838</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.171164320900004</v>
+        <v>3.773199574157388</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4312164964523078</v>
+        <v>0.1887029247956775</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1845399989463203</v>
+        <v>0.1835231648906301</v>
       </c>
       <c r="E14">
-        <v>0.1166333482686426</v>
+        <v>0.1600403062062661</v>
       </c>
       <c r="F14">
-        <v>0.9574497271684095</v>
+        <v>1.546407175568206</v>
       </c>
       <c r="G14">
-        <v>0.0007932142189408324</v>
+        <v>0.002462653619178386</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1044441799540223</v>
+        <v>0.1827731043992458</v>
       </c>
       <c r="K14">
-        <v>3.068308828415724</v>
+        <v>0.9881494864850708</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8059858548806744</v>
+        <v>0.3576321005737668</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.156038819304655</v>
+        <v>3.775325385075462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4264755867706214</v>
+        <v>0.1873791568901453</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1827882295241068</v>
+        <v>0.1831177386883098</v>
       </c>
       <c r="E15">
-        <v>0.1157743862679155</v>
+        <v>0.1599177830845235</v>
       </c>
       <c r="F15">
-        <v>0.9523561593579757</v>
+        <v>1.546484802697947</v>
       </c>
       <c r="G15">
-        <v>0.0007937238408900266</v>
+        <v>0.002462953845795082</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1039448101077411</v>
+        <v>0.1827941589188029</v>
       </c>
       <c r="K15">
-        <v>3.035136101957107</v>
+        <v>0.9780474205551002</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7970317200578876</v>
+        <v>0.3551069759143601</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.146911961904863</v>
+        <v>3.776672305171871</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.399411018102569</v>
+        <v>0.1798136173794376</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1727964951634391</v>
+        <v>0.1808117132666354</v>
       </c>
       <c r="E16">
-        <v>0.1109052758311613</v>
+        <v>0.1592363058983999</v>
       </c>
       <c r="F16">
-        <v>0.9239293796636474</v>
+        <v>1.54719275073515</v>
       </c>
       <c r="G16">
-        <v>0.0007966646180985292</v>
+        <v>0.002464701300519467</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1011567376157956</v>
+        <v>0.1829425930042419</v>
       </c>
       <c r="K16">
-        <v>2.845380049370533</v>
+        <v>0.9201218530370454</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.745862127992865</v>
+        <v>0.3406526253387199</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.096662319735771</v>
+        <v>3.785077337923212</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.382895541918856</v>
+        <v>0.1751907681310314</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.166706890149996</v>
+        <v>0.1794125460931042</v>
       </c>
       <c r="E17">
-        <v>0.1079640106715729</v>
+        <v>0.1588366930520202</v>
       </c>
       <c r="F17">
-        <v>0.9071464550833781</v>
+        <v>1.547861789678819</v>
       </c>
       <c r="G17">
-        <v>0.0007984873229266369</v>
+        <v>0.00246579743077931</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09950980224687811</v>
+        <v>0.1830584424312605</v>
       </c>
       <c r="K17">
-        <v>2.7292492445861</v>
+        <v>0.884556353426774</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7145898999511289</v>
+        <v>0.3317999606318338</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.067602194071156</v>
+        <v>3.790845719589441</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3734266933036707</v>
+        <v>0.1725386261944806</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1632182805882678</v>
+        <v>0.1786135039940575</v>
       </c>
       <c r="E18">
-        <v>0.1062884229299996</v>
+        <v>0.1586136358445991</v>
       </c>
       <c r="F18">
-        <v>0.8977250592056976</v>
+        <v>1.548332855064842</v>
       </c>
       <c r="G18">
-        <v>0.000799542729128309</v>
+        <v>0.002466436781727754</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09858498850322661</v>
+        <v>0.183134186988859</v>
       </c>
       <c r="K18">
-        <v>2.662545397505198</v>
+        <v>0.8640893502730194</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6966431299599876</v>
+        <v>0.3267136024953885</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.051511583878806</v>
+        <v>3.794388389315174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3702257580198705</v>
+        <v>0.1716418289157389</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1620394293306475</v>
+        <v>0.1783439470728609</v>
       </c>
       <c r="E19">
-        <v>0.1057238093907706</v>
+        <v>0.1585392794429623</v>
       </c>
       <c r="F19">
-        <v>0.8945740657682109</v>
+        <v>1.548507162341721</v>
       </c>
       <c r="G19">
-        <v>0.0007999012970525242</v>
+        <v>0.002466654783009268</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09827564053639293</v>
+        <v>0.1831613976998838</v>
       </c>
       <c r="K19">
-        <v>2.639975347232081</v>
+        <v>0.8571577776641561</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6905732494979731</v>
+        <v>0.3249923955032443</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.046168433715764</v>
+        <v>3.795626483089848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3846504539188516</v>
+        <v>0.1756821758123124</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.167353677005508</v>
+        <v>0.1795608981769448</v>
       </c>
       <c r="E20">
-        <v>0.1082754270149735</v>
+        <v>0.158878530027625</v>
       </c>
       <c r="F20">
-        <v>0.9089088390242921</v>
+        <v>1.547781642303974</v>
       </c>
       <c r="G20">
-        <v>0.0007982925689307299</v>
+        <v>0.002465679826725906</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09968277779601209</v>
+        <v>0.1830451671227991</v>
       </c>
       <c r="K20">
-        <v>2.741601857184662</v>
+        <v>0.8883434741079839</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7179146472224502</v>
+        <v>0.3327417788184945</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.070630556465858</v>
+        <v>3.790208391753595</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4334917934955911</v>
+        <v>0.1893380672599108</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1853808777260326</v>
+        <v>0.18371788309571</v>
       </c>
       <c r="E21">
-        <v>0.1170462110077786</v>
+        <v>0.1600994244038105</v>
       </c>
       <c r="F21">
-        <v>0.9599060682516836</v>
+        <v>1.546374605703875</v>
       </c>
       <c r="G21">
-        <v>0.0007929701941678896</v>
+        <v>0.002462510128789203</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1046849756920807</v>
+        <v>0.1827634995475691</v>
       </c>
       <c r="K21">
-        <v>3.084222532824128</v>
+        <v>0.9929930744862077</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8102822625286024</v>
+        <v>0.3588432483683803</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.160452647112123</v>
+        <v>3.774691646034228</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4657232034191878</v>
+        <v>0.1983224626450237</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1973030147768355</v>
+        <v>0.1864851579397566</v>
       </c>
       <c r="E22">
-        <v>0.1229369010483232</v>
+        <v>0.1609576240263983</v>
       </c>
       <c r="F22">
-        <v>0.9955035198329227</v>
+        <v>1.546223357326255</v>
       </c>
       <c r="G22">
-        <v>0.0007895502867243268</v>
+        <v>0.002460517242311928</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1081729678371488</v>
+        <v>0.1826605287429217</v>
       </c>
       <c r="K22">
-        <v>3.309195952027665</v>
+        <v>1.061284770764416</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8710824347599555</v>
+        <v>0.3759487650334492</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.225262152487318</v>
+        <v>3.766555354381723</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4484902470378955</v>
+        <v>0.1935219306116522</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1909263013917268</v>
+        <v>0.1850036200878122</v>
       </c>
       <c r="E23">
-        <v>0.1197776870990594</v>
+        <v>0.1604940805836641</v>
       </c>
       <c r="F23">
-        <v>0.9762866218604529</v>
+        <v>1.546233766199464</v>
       </c>
       <c r="G23">
-        <v>0.0007913704016589969</v>
+        <v>0.002461573703572273</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.106290393951852</v>
+        <v>0.1827080649978043</v>
       </c>
       <c r="K23">
-        <v>3.189015230918528</v>
+        <v>1.024845998689102</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8385888613734238</v>
+        <v>0.3668150490415911</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.190085617259484</v>
+        <v>3.770714284348173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3838569772823064</v>
+        <v>0.1754599929582525</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1670612262618931</v>
+        <v>0.1794938115062905</v>
       </c>
       <c r="E24">
-        <v>0.1081345879243827</v>
+        <v>0.1588595947045235</v>
       </c>
       <c r="F24">
-        <v>0.9081113593678083</v>
+        <v>1.547817607721214</v>
       </c>
       <c r="G24">
-        <v>0.0007983805938216231</v>
+        <v>0.002465732966990956</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09960450713029445</v>
+        <v>0.1830511404162607</v>
       </c>
       <c r="K24">
-        <v>2.736017052634793</v>
+        <v>0.8866313788232105</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.716411429956203</v>
+        <v>0.332315972962995</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.06925951966835</v>
+        <v>3.79049582261905</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3152819438639938</v>
+        <v>0.1562377461785047</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1418449755698106</v>
+        <v>0.1737696258197872</v>
       </c>
       <c r="E25">
-        <v>0.09618570731954534</v>
+        <v>0.1573562129349853</v>
       </c>
       <c r="F25">
-        <v>0.843329897948756</v>
+        <v>1.552823396186376</v>
       </c>
       <c r="G25">
-        <v>0.0008062132408629963</v>
+        <v>0.002470559392974996</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09324201827960366</v>
+        <v>0.1837695404529924</v>
       </c>
       <c r="K25">
-        <v>2.250767962823886</v>
+        <v>0.7371408604769556</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5861227523464549</v>
+        <v>0.2953129141995561</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.96251402253165</v>
+        <v>3.820428237442314</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423106037013184</v>
+        <v>0.2655652280410692</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1697448963614363</v>
+        <v>0.1236491676147011</v>
       </c>
       <c r="E2">
-        <v>0.1564731755020787</v>
+        <v>0.08783905025122607</v>
       </c>
       <c r="F2">
-        <v>1.559342287038866</v>
+        <v>0.8021599330248463</v>
       </c>
       <c r="G2">
-        <v>0.002474408482442186</v>
+        <v>0.0008122345227630803</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1845980772993379</v>
+        <v>0.08919552581951606</v>
       </c>
       <c r="K2">
-        <v>0.6267408329052273</v>
+        <v>1.895179625446701</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2682518545108366</v>
+        <v>0.4911000694247178</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.849845266364355</v>
+        <v>1.901527230948631</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1330144244095095</v>
+        <v>0.2322599359344082</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1671367038718614</v>
+        <v>0.1115119921126535</v>
       </c>
       <c r="E3">
-        <v>0.1560147298383896</v>
+        <v>0.08243048255341634</v>
       </c>
       <c r="F3">
-        <v>1.56552637913456</v>
+        <v>0.777875515852557</v>
       </c>
       <c r="G3">
-        <v>0.002477202841472538</v>
+        <v>0.0008164834046424219</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1853464863728931</v>
+        <v>0.08680927965723129</v>
       </c>
       <c r="K3">
-        <v>0.5517257592008491</v>
+        <v>1.654713227183862</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2500296013090733</v>
+        <v>0.4270977172112325</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.874377125917931</v>
+        <v>1.869966923876632</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1273773673674725</v>
+        <v>0.2119728923950248</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1655945231664901</v>
+        <v>0.1041443841567897</v>
       </c>
       <c r="E4">
-        <v>0.1558024348625224</v>
+        <v>0.07922175315342983</v>
       </c>
       <c r="F4">
-        <v>1.570194383556817</v>
+        <v>0.7646097500526992</v>
       </c>
       <c r="G4">
-        <v>0.002479010731127067</v>
+        <v>0.0008191781711304051</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1858982256128989</v>
+        <v>0.08550692654006298</v>
       </c>
       <c r="K4">
-        <v>0.5055742526283495</v>
+        <v>1.507161740181914</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2389000367067027</v>
+        <v>0.3879438747790402</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.891704648677916</v>
+        <v>1.855037825764612</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1250981766461052</v>
+        <v>0.2037426967863922</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1649810464549546</v>
+        <v>0.1011618038930209</v>
       </c>
       <c r="E5">
-        <v>0.1557333510515306</v>
+        <v>0.07794096356215263</v>
       </c>
       <c r="F5">
-        <v>1.572315649587104</v>
+        <v>0.7595980670825284</v>
       </c>
       <c r="G5">
-        <v>0.002479770700129648</v>
+        <v>0.0008202983298257194</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1861462592172174</v>
+        <v>0.08501535513758185</v>
       </c>
       <c r="K5">
-        <v>0.4867451006184069</v>
+        <v>1.447036223566897</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2343797446631086</v>
+        <v>0.3720176857609658</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.899335049226693</v>
+        <v>1.850020996831077</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1247208074859572</v>
+        <v>0.2023781988115445</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.164880085687976</v>
+        <v>0.1006677007687884</v>
       </c>
       <c r="E6">
-        <v>0.15572293320988</v>
+        <v>0.07772986786350344</v>
       </c>
       <c r="F6">
-        <v>1.572681112539335</v>
+        <v>0.7587891419503023</v>
       </c>
       <c r="G6">
-        <v>0.002479898297944929</v>
+        <v>0.0008204856729541188</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1861888461790073</v>
+        <v>0.08493604380627673</v>
       </c>
       <c r="K6">
-        <v>0.4836172352496533</v>
+        <v>1.437052010253041</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2336300732559806</v>
+        <v>0.3693747325156735</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.900636448868909</v>
+        <v>1.849250928088793</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1273465565114407</v>
+        <v>0.2118617525917443</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1655861888770076</v>
+        <v>0.1041040818855947</v>
       </c>
       <c r="E7">
-        <v>0.1558014325694614</v>
+        <v>0.07920437330012575</v>
       </c>
       <c r="F7">
-        <v>1.570222104893162</v>
+        <v>0.7645405894886039</v>
       </c>
       <c r="G7">
-        <v>0.002479020886256443</v>
+        <v>0.0008191931884215424</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1859014767535072</v>
+        <v>0.08550014083083468</v>
       </c>
       <c r="K7">
-        <v>0.505320403890579</v>
+        <v>1.506350881655862</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2388390129895797</v>
+        <v>0.3877289786723992</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.89180525018196</v>
+        <v>1.854965913817864</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390906624479697</v>
+        <v>0.2540453917967938</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1688333348001407</v>
+        <v>0.1194457586609587</v>
       </c>
       <c r="E8">
-        <v>0.1563007594761672</v>
+        <v>0.08595002754342218</v>
       </c>
       <c r="F8">
-        <v>1.561293800236456</v>
+        <v>0.7934332517367864</v>
       </c>
       <c r="G8">
-        <v>0.002475352895005455</v>
+        <v>0.0008136819543249335</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1848369942782213</v>
+        <v>0.08833784906670417</v>
       </c>
       <c r="K8">
-        <v>0.6008953437470268</v>
+        <v>1.812233661228305</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2619567355251604</v>
+        <v>0.4689979267303812</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.857833641294746</v>
+        <v>1.889689783424387</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1626778301107947</v>
+        <v>0.3382479289877836</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1756684330423042</v>
+        <v>0.1502763176752921</v>
       </c>
       <c r="E9">
-        <v>0.1578278911207462</v>
+        <v>0.1001359284083883</v>
       </c>
       <c r="F9">
-        <v>1.550696923316536</v>
+        <v>0.8640736825391855</v>
       </c>
       <c r="G9">
-        <v>0.00246888791470906</v>
+        <v>0.0008035366695942625</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1834810108745302</v>
+        <v>0.09528021757684968</v>
       </c>
       <c r="K9">
-        <v>0.7875496487299358</v>
+        <v>2.41388466311426</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3077491461840722</v>
+        <v>0.6298454793950654</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.80919846068241</v>
+        <v>1.99556574520193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1803420342742896</v>
+        <v>0.4012998019117759</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1809721415735481</v>
+        <v>0.1734933067222784</v>
       </c>
       <c r="E10">
-        <v>0.1592828238758592</v>
+        <v>0.1112431312075088</v>
       </c>
       <c r="F10">
-        <v>1.547128097068651</v>
+        <v>0.9258764948963289</v>
       </c>
       <c r="G10">
-        <v>0.002464577427098863</v>
+        <v>0.0007964575746376533</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1829306082935105</v>
+        <v>0.1013477693761047</v>
       </c>
       <c r="K10">
-        <v>0.9241786514892851</v>
+        <v>2.858644554563142</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3416635093013412</v>
+        <v>0.7494361969558341</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.78444960191635</v>
+        <v>2.100064636153888</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1884497011099313</v>
+        <v>0.4303094746932317</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1834455681805451</v>
+        <v>0.1842048199225985</v>
       </c>
       <c r="E11">
-        <v>0.1600167961721688</v>
+        <v>0.1164688773790132</v>
       </c>
       <c r="F11">
-        <v>1.546421002019798</v>
+        <v>0.956472661164625</v>
       </c>
       <c r="G11">
-        <v>0.002462710927446332</v>
+        <v>0.0007933115969091573</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1827770231735073</v>
+        <v>0.1043483939009633</v>
       </c>
       <c r="K11">
-        <v>0.986217799202592</v>
+        <v>3.061963778254722</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3571491577134864</v>
+        <v>0.8042729716450907</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.775580300422263</v>
+        <v>2.154285354504651</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1915301156894884</v>
+        <v>0.4413476167015205</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1843908615254435</v>
+        <v>0.1882849065127203</v>
       </c>
       <c r="E12">
-        <v>0.1603050785956057</v>
+        <v>0.1184747543821381</v>
       </c>
       <c r="F12">
-        <v>1.546285054590541</v>
+        <v>0.9684452012761966</v>
       </c>
       <c r="G12">
-        <v>0.002462017630495969</v>
+        <v>0.0007921303842978248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.182732780395618</v>
+        <v>0.1055219561428302</v>
       </c>
       <c r="K12">
-        <v>1.009693120684744</v>
+        <v>3.139133599156708</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.363021270552224</v>
+        <v>0.8251117173431339</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.772565608057221</v>
+        <v>2.175857970219823</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.190866241360979</v>
+        <v>0.4389679105238855</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1841868916996248</v>
+        <v>0.1874050868220252</v>
       </c>
       <c r="E13">
-        <v>0.1602425322405985</v>
+        <v>0.1180415166248281</v>
       </c>
       <c r="F13">
-        <v>1.546308470211983</v>
+        <v>0.9658490189207072</v>
       </c>
       <c r="G13">
-        <v>0.002462166344861069</v>
+        <v>0.0007923843400833205</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1827416899667611</v>
+        <v>0.1052675046442104</v>
       </c>
       <c r="K13">
-        <v>1.00463808932858</v>
+        <v>3.122505241692949</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.361756253162838</v>
+        <v>0.8206202817231585</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.773199574157388</v>
+        <v>2.171164320900033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1887029247956775</v>
+        <v>0.4312164964523504</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1835231648906301</v>
+        <v>0.1845399989462777</v>
       </c>
       <c r="E14">
-        <v>0.1600403062062661</v>
+        <v>0.1166333482686568</v>
       </c>
       <c r="F14">
-        <v>1.546407175568206</v>
+        <v>0.9574497271683811</v>
       </c>
       <c r="G14">
-        <v>0.002462653619178386</v>
+        <v>0.00079321421896874</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1827731043992458</v>
+        <v>0.1044441799540436</v>
       </c>
       <c r="K14">
-        <v>0.9881494864850708</v>
+        <v>3.068308828415667</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3576321005737668</v>
+        <v>0.8059858548806815</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.775325385075462</v>
+        <v>2.156038819304626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1873791568901453</v>
+        <v>0.4264755867706356</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1831177386883098</v>
+        <v>0.1827882295242205</v>
       </c>
       <c r="E15">
-        <v>0.1599177830845235</v>
+        <v>0.1157743862679297</v>
       </c>
       <c r="F15">
-        <v>1.546484802697947</v>
+        <v>0.9523561593579331</v>
       </c>
       <c r="G15">
-        <v>0.002462953845795082</v>
+        <v>0.0007937238409198684</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1827941589188029</v>
+        <v>0.1039448101076985</v>
       </c>
       <c r="K15">
-        <v>0.9780474205551002</v>
+        <v>3.035136101957022</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3551069759143601</v>
+        <v>0.7970317200578876</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.776672305171871</v>
+        <v>2.146911961904721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1798136173794376</v>
+        <v>0.399411018102569</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1808117132666354</v>
+        <v>0.1727964951635812</v>
       </c>
       <c r="E16">
-        <v>0.1592363058983999</v>
+        <v>0.1109052758311506</v>
       </c>
       <c r="F16">
-        <v>1.54719275073515</v>
+        <v>0.9239293796636332</v>
       </c>
       <c r="G16">
-        <v>0.002464701300519467</v>
+        <v>0.0007966646181545605</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1829425930042419</v>
+        <v>0.1011567376158027</v>
       </c>
       <c r="K16">
-        <v>0.9201218530370454</v>
+        <v>2.845380049370561</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3406526253387199</v>
+        <v>0.7458621279928721</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.785077337923212</v>
+        <v>2.096662319735771</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1751907681310314</v>
+        <v>0.3828955419187992</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1794125460931042</v>
+        <v>0.1667068901499533</v>
       </c>
       <c r="E17">
-        <v>0.1588366930520202</v>
+        <v>0.1079640106715694</v>
       </c>
       <c r="F17">
-        <v>1.547861789678819</v>
+        <v>0.9071464550833639</v>
       </c>
       <c r="G17">
-        <v>0.00246579743077931</v>
+        <v>0.0007984873229261564</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1830584424312605</v>
+        <v>0.09950980224684258</v>
       </c>
       <c r="K17">
-        <v>0.884556353426774</v>
+        <v>2.729249244586043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3317999606318338</v>
+        <v>0.7145898999511289</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.790845719589441</v>
+        <v>2.067602194071185</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1725386261944806</v>
+        <v>0.373426693303557</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1786135039940575</v>
+        <v>0.1632182805881826</v>
       </c>
       <c r="E18">
-        <v>0.1586136358445991</v>
+        <v>0.1062884229299854</v>
       </c>
       <c r="F18">
-        <v>1.548332855064842</v>
+        <v>0.8977250592056549</v>
       </c>
       <c r="G18">
-        <v>0.002466436781727754</v>
+        <v>0.000799542729127245</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.183134186988859</v>
+        <v>0.09858498850327635</v>
       </c>
       <c r="K18">
-        <v>0.8640893502730194</v>
+        <v>2.662545397505284</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3267136024953885</v>
+        <v>0.6966431299599876</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.794388389315174</v>
+        <v>2.051511583878749</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1716418289157389</v>
+        <v>0.3702257580198989</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1783439470728609</v>
+        <v>0.1620394293307754</v>
       </c>
       <c r="E19">
-        <v>0.1585392794429623</v>
+        <v>0.1057238093907458</v>
       </c>
       <c r="F19">
-        <v>1.548507162341721</v>
+        <v>0.8945740657681966</v>
       </c>
       <c r="G19">
-        <v>0.002466654783009268</v>
+        <v>0.0007999012970241502</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1831613976998838</v>
+        <v>0.09827564053637161</v>
       </c>
       <c r="K19">
-        <v>0.8571577776641561</v>
+        <v>2.639975347232138</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3249923955032443</v>
+        <v>0.6905732494979517</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.795626483089848</v>
+        <v>2.046168433715764</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1756821758123124</v>
+        <v>0.3846504539189937</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1795608981769448</v>
+        <v>0.1673536770053374</v>
       </c>
       <c r="E20">
-        <v>0.158878530027625</v>
+        <v>0.1082754270149877</v>
       </c>
       <c r="F20">
-        <v>1.547781642303974</v>
+        <v>0.9089088390242637</v>
       </c>
       <c r="G20">
-        <v>0.002465679826725906</v>
+        <v>0.0007982925689027523</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1830451671227991</v>
+        <v>0.09968277779608314</v>
       </c>
       <c r="K20">
-        <v>0.8883434741079839</v>
+        <v>2.741601857184662</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3327417788184945</v>
+        <v>0.7179146472224289</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.790208391753595</v>
+        <v>2.070630556465744</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1893380672599108</v>
+        <v>0.4334917934955769</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.18371788309571</v>
+        <v>0.1853808777260326</v>
       </c>
       <c r="E21">
-        <v>0.1600994244038105</v>
+        <v>0.1170462110077963</v>
       </c>
       <c r="F21">
-        <v>1.546374605703875</v>
+        <v>0.9599060682516836</v>
       </c>
       <c r="G21">
-        <v>0.002462510128789203</v>
+        <v>0.0007929701941676657</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1827634995475691</v>
+        <v>0.1046849756920949</v>
       </c>
       <c r="K21">
-        <v>0.9929930744862077</v>
+        <v>3.084222532823958</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3588432483683803</v>
+        <v>0.8102822625286095</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.774691646034228</v>
+        <v>2.160452647112123</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1983224626450237</v>
+        <v>0.4657232034191878</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1864851579397566</v>
+        <v>0.1973030147768924</v>
       </c>
       <c r="E22">
-        <v>0.1609576240263983</v>
+        <v>0.1229369010483019</v>
       </c>
       <c r="F22">
-        <v>1.546223357326255</v>
+        <v>0.9955035198328943</v>
       </c>
       <c r="G22">
-        <v>0.002460517242311928</v>
+        <v>0.0007895502866957103</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1826605287429217</v>
+        <v>0.1081729678373264</v>
       </c>
       <c r="K22">
-        <v>1.061284770764416</v>
+        <v>3.309195952027665</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3759487650334492</v>
+        <v>0.8710824347599768</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.766555354381723</v>
+        <v>2.225262152487261</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1935219306116522</v>
+        <v>0.4484902470378955</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1850036200878122</v>
+        <v>0.1909263013916274</v>
       </c>
       <c r="E23">
-        <v>0.1604940805836641</v>
+        <v>0.1197776870990559</v>
       </c>
       <c r="F23">
-        <v>1.546233766199464</v>
+        <v>0.9762866218604245</v>
       </c>
       <c r="G23">
-        <v>0.002461573703572273</v>
+        <v>0.000791370401715225</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1827080649978043</v>
+        <v>0.1062903939518804</v>
       </c>
       <c r="K23">
-        <v>1.024845998689102</v>
+        <v>3.189015230918528</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3668150490415911</v>
+        <v>0.8385888613734096</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.770714284348173</v>
+        <v>2.190085617259484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1754599929582525</v>
+        <v>0.3838569772821785</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1794938115062905</v>
+        <v>0.1670612262619784</v>
       </c>
       <c r="E24">
-        <v>0.1588595947045235</v>
+        <v>0.1081345879243862</v>
       </c>
       <c r="F24">
-        <v>1.547817607721214</v>
+        <v>0.9081113593677941</v>
       </c>
       <c r="G24">
-        <v>0.002465732966990956</v>
+        <v>0.0007983805937962773</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1830511404162607</v>
+        <v>0.09960450713030156</v>
       </c>
       <c r="K24">
-        <v>0.8866313788232105</v>
+        <v>2.736017052634907</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.332315972962995</v>
+        <v>0.7164114299561959</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.79049582261905</v>
+        <v>2.069259519668407</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1562377461785047</v>
+        <v>0.3152819438639796</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1737696258197872</v>
+        <v>0.1418449755698248</v>
       </c>
       <c r="E25">
-        <v>0.1573562129349853</v>
+        <v>0.09618570731958087</v>
       </c>
       <c r="F25">
-        <v>1.552823396186376</v>
+        <v>0.8433298979487702</v>
       </c>
       <c r="G25">
-        <v>0.002470559392974996</v>
+        <v>0.000806213240892373</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1837695404529924</v>
+        <v>0.09324201827947576</v>
       </c>
       <c r="K25">
-        <v>0.7371408604769556</v>
+        <v>2.250767962823915</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2953129141995561</v>
+        <v>0.5861227523464549</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.820428237442314</v>
+        <v>1.96251402253165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2655652280410692</v>
+        <v>2.361742739109388</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1236491676147011</v>
+        <v>4.132424660840961E-05</v>
       </c>
       <c r="E2">
-        <v>0.08783905025122607</v>
+        <v>2.06252805685061</v>
       </c>
       <c r="F2">
-        <v>0.8021599330248463</v>
+        <v>1.373882652589089</v>
       </c>
       <c r="G2">
-        <v>0.0008122345227630803</v>
+        <v>1.411584212796299</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001841882448115784</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02052333011084473</v>
       </c>
       <c r="J2">
-        <v>0.08919552581951606</v>
+        <v>0.7113562185358262</v>
       </c>
       <c r="K2">
-        <v>1.895179625446701</v>
+        <v>0.5507351920993031</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4911000694247178</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9765210488768901</v>
       </c>
       <c r="O2">
-        <v>1.901527230948631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7565980700046637</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2322599359344082</v>
+        <v>2.061312519005185</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1115119921126535</v>
+        <v>0.0001330048134410289</v>
       </c>
       <c r="E3">
-        <v>0.08243048255341634</v>
+        <v>1.820849634183489</v>
       </c>
       <c r="F3">
-        <v>0.777875515852557</v>
+        <v>1.190551732597754</v>
       </c>
       <c r="G3">
-        <v>0.0008164834046424219</v>
+        <v>1.2157806965144</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003542014738988337</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02413943250597139</v>
       </c>
       <c r="J3">
-        <v>0.08680927965723129</v>
+        <v>0.6272865411559962</v>
       </c>
       <c r="K3">
-        <v>1.654713227183862</v>
+        <v>0.5404863434274887</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4270977172112325</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8509210710483899</v>
       </c>
       <c r="O3">
-        <v>1.869966923876632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6599158495691952</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2119728923950248</v>
+        <v>1.87646069714296</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1041443841567897</v>
+        <v>0.0002222661034604334</v>
       </c>
       <c r="E4">
-        <v>0.07922175315342983</v>
+        <v>1.674034649608927</v>
       </c>
       <c r="F4">
-        <v>0.7646097500526992</v>
+        <v>1.080843460471712</v>
       </c>
       <c r="G4">
-        <v>0.0008191781711304051</v>
+        <v>1.09857332539363</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004891050331924702</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02659161676318922</v>
       </c>
       <c r="J4">
-        <v>0.08550692654006298</v>
+        <v>0.5773102190946702</v>
       </c>
       <c r="K4">
-        <v>1.507161740181914</v>
+        <v>0.535607079987642</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3879438747790402</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.774262414049474</v>
       </c>
       <c r="O4">
-        <v>1.855037825764612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6006164685507258</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2037426967863922</v>
+        <v>1.800824242165078</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1011618038930209</v>
+        <v>0.0002638617555408285</v>
       </c>
       <c r="E5">
-        <v>0.07794096356215263</v>
+        <v>1.617339645543581</v>
       </c>
       <c r="F5">
-        <v>0.7595980670825284</v>
+        <v>1.035741109055195</v>
       </c>
       <c r="G5">
-        <v>0.0008202983298257194</v>
+        <v>1.050280241589931</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005510878345788893</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02773711185682259</v>
       </c>
       <c r="J5">
-        <v>0.08501535513758185</v>
+        <v>0.5566953805002868</v>
       </c>
       <c r="K5">
-        <v>1.447036223566897</v>
+        <v>0.5354243264654528</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3720176857609658</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7442431962475098</v>
       </c>
       <c r="O5">
-        <v>1.850020996831077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5768018426730066</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2023781988115445</v>
+        <v>1.788013667834861</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1006677007687884</v>
+        <v>0.0002687637423877121</v>
       </c>
       <c r="E6">
-        <v>0.07772986786350344</v>
+        <v>1.611366318164272</v>
       </c>
       <c r="F6">
-        <v>0.7587891419503023</v>
+        <v>1.027037085402455</v>
       </c>
       <c r="G6">
-        <v>0.0008204856729541188</v>
+        <v>1.040846444854623</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005616430662188422</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02804866854140275</v>
       </c>
       <c r="J6">
-        <v>0.08493604380627673</v>
+        <v>0.5525414825184924</v>
       </c>
       <c r="K6">
-        <v>1.437052010253041</v>
+        <v>0.5372188797213511</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3693747325156735</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7406331513320197</v>
       </c>
       <c r="O6">
-        <v>1.849250928088793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5732641123319837</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2118617525917443</v>
+        <v>1.874771421760215</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1041040818855947</v>
+        <v>0.0002163883502557251</v>
       </c>
       <c r="E7">
-        <v>0.07920437330012575</v>
+        <v>1.68263640889721</v>
       </c>
       <c r="F7">
-        <v>0.7645405894886039</v>
+        <v>1.07681702175033</v>
       </c>
       <c r="G7">
-        <v>0.0008191931884215424</v>
+        <v>1.093952128835127</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004895017178962071</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02691190199854532</v>
       </c>
       <c r="J7">
-        <v>0.08550014083083468</v>
+        <v>0.5749785061021555</v>
       </c>
       <c r="K7">
-        <v>1.506350881655862</v>
+        <v>0.5405620715277308</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3877289786723992</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.777601157428137</v>
       </c>
       <c r="O7">
-        <v>1.854965913817864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6014338144945626</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2540453917967938</v>
+        <v>2.257332985854305</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1194457586609587</v>
+        <v>5.85814529912021E-05</v>
       </c>
       <c r="E8">
-        <v>0.08595002754342218</v>
+        <v>1.991355150370538</v>
       </c>
       <c r="F8">
-        <v>0.7934332517367864</v>
+        <v>1.305498881031596</v>
       </c>
       <c r="G8">
-        <v>0.0008136819543249335</v>
+        <v>1.338127257112944</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002356759580694878</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02208534563955933</v>
       </c>
       <c r="J8">
-        <v>0.08833784906670417</v>
+        <v>0.6792874302049654</v>
       </c>
       <c r="K8">
-        <v>1.812233661228305</v>
+        <v>0.5536483798428264</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4689979267303812</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9380953385699797</v>
       </c>
       <c r="O8">
-        <v>1.889689783424387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7247607443299628</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3382479289877836</v>
+        <v>3.00628687760144</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1502763176752921</v>
+        <v>6.934683192505453E-05</v>
       </c>
       <c r="E9">
-        <v>0.1001359284083883</v>
+        <v>2.594942020853921</v>
       </c>
       <c r="F9">
-        <v>0.8640736825391855</v>
+        <v>1.787321687200432</v>
       </c>
       <c r="G9">
-        <v>0.0008035366695942625</v>
+        <v>1.853087642687427</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.902260792356757E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01413560072043296</v>
       </c>
       <c r="J9">
-        <v>0.09528021757684968</v>
+        <v>0.902918694711957</v>
       </c>
       <c r="K9">
-        <v>2.41388466311426</v>
+        <v>0.5819477654146894</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6298454793950654</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.250357372732338</v>
       </c>
       <c r="O9">
-        <v>1.99556574520193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9653418108052136</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4012998019117759</v>
+        <v>3.559114244885052</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1734933067222784</v>
+        <v>0.0003437520329128141</v>
       </c>
       <c r="E10">
-        <v>0.1112431312075088</v>
+        <v>3.114268702417263</v>
       </c>
       <c r="F10">
-        <v>0.9258764948963289</v>
+        <v>2.143432748671415</v>
       </c>
       <c r="G10">
-        <v>0.0007964575746376533</v>
+        <v>2.231817955461054</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005722060275319407</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009881528369896309</v>
       </c>
       <c r="J10">
-        <v>0.1013477693761047</v>
+        <v>1.067490850943159</v>
       </c>
       <c r="K10">
-        <v>2.858644554563142</v>
+        <v>0.63699447273315</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7494361969558341</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.46581053276384</v>
       </c>
       <c r="O10">
-        <v>2.100064636153888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.137632386600032</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4303094746932317</v>
+        <v>3.840388244662336</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1842048199225985</v>
+        <v>0.001344538898790049</v>
       </c>
       <c r="E11">
-        <v>0.1164688773790132</v>
+        <v>3.917644103697569</v>
       </c>
       <c r="F11">
-        <v>0.956472661164625</v>
+        <v>2.135601261345698</v>
       </c>
       <c r="G11">
-        <v>0.0007933115969091573</v>
+        <v>2.20665952154917</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01948817507212652</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.008891911679106634</v>
       </c>
       <c r="J11">
-        <v>0.1043483939009633</v>
+        <v>1.041555906846668</v>
       </c>
       <c r="K11">
-        <v>3.061963778254722</v>
+        <v>0.9212187523440036</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8042729716450907</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.403301452315162</v>
       </c>
       <c r="O11">
-        <v>2.154285354504651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.165737410974543</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4413476167015205</v>
+        <v>3.963415090821286</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1882849065127203</v>
+        <v>0.003121604234461728</v>
       </c>
       <c r="E12">
-        <v>0.1184747543821381</v>
+        <v>4.529585736389208</v>
       </c>
       <c r="F12">
-        <v>0.9684452012761966</v>
+        <v>2.05903531863872</v>
       </c>
       <c r="G12">
-        <v>0.0007921303842978248</v>
+        <v>2.11308156115723</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05832680267616297</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.008273760041978662</v>
       </c>
       <c r="J12">
-        <v>0.1055219561428302</v>
+        <v>0.9883949211884726</v>
       </c>
       <c r="K12">
-        <v>3.139133599156708</v>
+        <v>1.194450520224024</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8251117173431339</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.3008840469262</v>
       </c>
       <c r="O12">
-        <v>2.175857970219823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.15027347166459</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4389679105238855</v>
+        <v>3.96927210323787</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1874050868220252</v>
+        <v>0.005499962934896629</v>
       </c>
       <c r="E13">
-        <v>0.1180415166248281</v>
+        <v>5.036781261253424</v>
       </c>
       <c r="F13">
-        <v>0.9658490189207072</v>
+        <v>1.917295824302016</v>
       </c>
       <c r="G13">
-        <v>0.0007923843400833205</v>
+        <v>1.952529462697214</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1140138012366663</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.008261243588100875</v>
       </c>
       <c r="J13">
-        <v>0.1052675046442104</v>
+        <v>0.9066717492536327</v>
       </c>
       <c r="K13">
-        <v>3.122505241692949</v>
+        <v>1.478018596724354</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8206202817231585</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.168691061321397</v>
       </c>
       <c r="O13">
-        <v>2.171164320900033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.10233284393891</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4312164964523504</v>
+        <v>3.919908524262382</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1845399989462777</v>
+        <v>0.007549906862388767</v>
       </c>
       <c r="E14">
-        <v>0.1166333482686568</v>
+        <v>5.351636365452265</v>
       </c>
       <c r="F14">
-        <v>0.9574497271683811</v>
+        <v>1.788634171277153</v>
       </c>
       <c r="G14">
-        <v>0.00079321421896874</v>
+        <v>1.810081252723819</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1632193013430197</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008603740704742791</v>
       </c>
       <c r="J14">
-        <v>0.1044441799540436</v>
+        <v>0.8365780101887594</v>
       </c>
       <c r="K14">
-        <v>3.068308828415667</v>
+        <v>1.688098665426679</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8059858548806815</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.065006306615516</v>
       </c>
       <c r="O14">
-        <v>2.156038819304626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.05464083659944</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4264755867706356</v>
+        <v>3.88232327630368</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1827882295242205</v>
+        <v>0.008067367112426282</v>
       </c>
       <c r="E15">
-        <v>0.1157743862679297</v>
+        <v>5.402395541667602</v>
       </c>
       <c r="F15">
-        <v>0.9523561593579331</v>
+        <v>1.742302060698009</v>
       </c>
       <c r="G15">
-        <v>0.0007937238409198684</v>
+        <v>1.75967757951193</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1756248558951796</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00896097254314121</v>
       </c>
       <c r="J15">
-        <v>0.1039448101076985</v>
+        <v>0.8127208232012606</v>
       </c>
       <c r="K15">
-        <v>3.035136101957022</v>
+        <v>1.737941044833022</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7970317200578876</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.034673847774968</v>
       </c>
       <c r="O15">
-        <v>2.146911961904721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.036754706420595</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.399411018102569</v>
+        <v>3.640363307851942</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1727964951635812</v>
+        <v>0.00723656548725593</v>
       </c>
       <c r="E16">
-        <v>0.1109052758311506</v>
+        <v>5.060680906636946</v>
       </c>
       <c r="F16">
-        <v>0.9239293796636332</v>
+        <v>1.611217051203212</v>
       </c>
       <c r="G16">
-        <v>0.0007966646181545605</v>
+        <v>1.622142243278319</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622457984834398</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01075206175091115</v>
       </c>
       <c r="J16">
-        <v>0.1011567376158027</v>
+        <v>0.7547808900470727</v>
       </c>
       <c r="K16">
-        <v>2.845380049370561</v>
+        <v>1.645577539396555</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7458621279928721</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9747640553947861</v>
       </c>
       <c r="O16">
-        <v>2.096662319735771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9741755938076722</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3828955419187992</v>
+        <v>3.481754259122852</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1667068901499533</v>
+        <v>0.005483522153745923</v>
       </c>
       <c r="E17">
-        <v>0.1079640106715694</v>
+        <v>4.631199237079898</v>
       </c>
       <c r="F17">
-        <v>0.9071464550833639</v>
+        <v>1.580270710765518</v>
       </c>
       <c r="G17">
-        <v>0.0007984873229261564</v>
+        <v>1.593519626332863</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242036353487777</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01204380099142632</v>
       </c>
       <c r="J17">
-        <v>0.09950980224684258</v>
+        <v>0.7482171486524294</v>
       </c>
       <c r="K17">
-        <v>2.729249244586043</v>
+        <v>1.462066403100195</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7145898999511289</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.9832578379109407</v>
       </c>
       <c r="O17">
-        <v>2.067602194071185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.9515013498197149</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.373426693303557</v>
+        <v>3.377368849799268</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1632182805881826</v>
+        <v>0.003128214010098773</v>
       </c>
       <c r="E18">
-        <v>0.1062884229299854</v>
+        <v>4.090969827800308</v>
       </c>
       <c r="F18">
-        <v>0.8977250592056549</v>
+        <v>1.633808833623277</v>
       </c>
       <c r="G18">
-        <v>0.000799542729127245</v>
+        <v>1.658237411661844</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133678378121289</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01259670900768484</v>
       </c>
       <c r="J18">
-        <v>0.09858498850327635</v>
+        <v>0.7864573104736223</v>
       </c>
       <c r="K18">
-        <v>2.662545397505284</v>
+        <v>1.194765603073776</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6966431299599876</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.050320140172971</v>
       </c>
       <c r="O18">
-        <v>2.051511583878749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.9593139020428652</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3702257580198989</v>
+        <v>3.322992619959336</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1620394293307754</v>
+        <v>0.00123611813503377</v>
       </c>
       <c r="E19">
-        <v>0.1057238093907458</v>
+        <v>3.55942628947966</v>
       </c>
       <c r="F19">
-        <v>0.8945740657681966</v>
+        <v>1.747611185168935</v>
       </c>
       <c r="G19">
-        <v>0.0007999012970241502</v>
+        <v>1.790098931525392</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616005623599449</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01297045708747291</v>
       </c>
       <c r="J19">
-        <v>0.09827564053637161</v>
+        <v>0.8559176181786086</v>
       </c>
       <c r="K19">
-        <v>2.639975347232138</v>
+        <v>0.931653683513268</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6905732494979517</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.169307766442671</v>
       </c>
       <c r="O19">
-        <v>2.046168433715764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.993146129512823</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3846504539189937</v>
+        <v>3.411956809651429</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1673536770053374</v>
+        <v>0.0002501362447744349</v>
       </c>
       <c r="E20">
-        <v>0.1082754270149877</v>
+        <v>3.00954258525411</v>
       </c>
       <c r="F20">
-        <v>0.9089088390242637</v>
+        <v>2.036541230555628</v>
       </c>
       <c r="G20">
-        <v>0.0007982925689027523</v>
+        <v>2.116968324587731</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002728032093970434</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01178163753573891</v>
       </c>
       <c r="J20">
-        <v>0.09968277779608314</v>
+        <v>1.016389169132708</v>
       </c>
       <c r="K20">
-        <v>2.741601857184662</v>
+        <v>0.6403906544322453</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7179146472224289</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.420069830042905</v>
       </c>
       <c r="O20">
-        <v>2.070630556465744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.095697851290367</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4334917934955769</v>
+        <v>3.831463796707794</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1853808777260326</v>
+        <v>0.0005807165501474643</v>
       </c>
       <c r="E21">
-        <v>0.1170462110077963</v>
+        <v>3.318121773874168</v>
       </c>
       <c r="F21">
-        <v>0.9599060682516836</v>
+        <v>2.352976993669856</v>
       </c>
       <c r="G21">
-        <v>0.0007929701941676657</v>
+        <v>2.457104888080437</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001221859201327266</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.008774152050672335</v>
       </c>
       <c r="J21">
-        <v>0.1046849756920949</v>
+        <v>1.167798326904744</v>
       </c>
       <c r="K21">
-        <v>3.084222532823958</v>
+        <v>0.6456581510025288</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8102822625286095</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.614369007074146</v>
       </c>
       <c r="O21">
-        <v>2.160452647112123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.236770963644219</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4657232034191878</v>
+        <v>4.108515789964599</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1973030147768924</v>
+        <v>0.0008773393824514919</v>
       </c>
       <c r="E22">
-        <v>0.1229369010483019</v>
+        <v>3.540646324421203</v>
       </c>
       <c r="F22">
-        <v>0.9955035198328943</v>
+        <v>2.561030552981151</v>
       </c>
       <c r="G22">
-        <v>0.0007895502866957103</v>
+        <v>2.680325979809936</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.00240949784246506</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.006804929435561213</v>
       </c>
       <c r="J22">
-        <v>0.1081729678373264</v>
+        <v>1.267133837916731</v>
       </c>
       <c r="K22">
-        <v>3.309195952027665</v>
+        <v>0.655648125931684</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8710824347599768</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.727486151587186</v>
       </c>
       <c r="O22">
-        <v>2.225262152487261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.324761221723961</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4484902470378955</v>
+        <v>3.961416339204504</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1909263013916274</v>
+        <v>0.0007099083581294519</v>
       </c>
       <c r="E23">
-        <v>0.1197776870990559</v>
+        <v>3.409979549573848</v>
       </c>
       <c r="F23">
-        <v>0.9762866218604245</v>
+        <v>2.453275209741278</v>
       </c>
       <c r="G23">
-        <v>0.000791370401715225</v>
+        <v>2.565061188510384</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001720998277404975</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.007491336041293373</v>
       </c>
       <c r="J23">
-        <v>0.1062903939518804</v>
+        <v>1.216118364177561</v>
       </c>
       <c r="K23">
-        <v>3.189015230918528</v>
+        <v>0.6435023108581674</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8385888613734096</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.662490207417108</v>
       </c>
       <c r="O23">
-        <v>2.190085617259484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.276392376595524</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3838569772821785</v>
+        <v>3.403644608875823</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1670612262619784</v>
+        <v>0.0002447195115267142</v>
       </c>
       <c r="E24">
-        <v>0.1081345879243862</v>
+        <v>2.941176720404997</v>
       </c>
       <c r="F24">
-        <v>0.9081113593677941</v>
+        <v>2.05340207538498</v>
       </c>
       <c r="G24">
-        <v>0.0007983805937962773</v>
+        <v>2.137057576550319</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001600448922308151</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01125948887524952</v>
       </c>
       <c r="J24">
-        <v>0.09960450713030156</v>
+        <v>1.026998212469692</v>
       </c>
       <c r="K24">
-        <v>2.736017052634907</v>
+        <v>0.6114578847685408</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7164114299561959</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.425363874087367</v>
       </c>
       <c r="O24">
-        <v>2.069259519668407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.096001592392099</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3152819438639796</v>
+        <v>2.802611471032151</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1418449755698248</v>
+        <v>2.028621135230502E-05</v>
       </c>
       <c r="E25">
-        <v>0.09618570731958087</v>
+        <v>2.446973130207184</v>
       </c>
       <c r="F25">
-        <v>0.8433298979487702</v>
+        <v>1.647203359928795</v>
       </c>
       <c r="G25">
-        <v>0.000806213240892373</v>
+        <v>1.702738011672835</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0003591829926001128</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01655485832630799</v>
       </c>
       <c r="J25">
-        <v>0.09324201827947576</v>
+        <v>0.8367243188397424</v>
       </c>
       <c r="K25">
-        <v>2.250767962823915</v>
+        <v>0.5825714091387724</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5861227523464549</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.17219792805173</v>
       </c>
       <c r="O25">
-        <v>1.96251402253165</v>
+        <v>0.9022164130392198</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.361742739109388</v>
+        <v>2.383459902194716</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.132424660840961E-05</v>
+        <v>0.000786105823911587</v>
       </c>
       <c r="E2">
-        <v>2.06252805685061</v>
+        <v>1.73455920623141</v>
       </c>
       <c r="F2">
-        <v>1.373882652589089</v>
+        <v>1.467212200422978</v>
       </c>
       <c r="G2">
-        <v>1.411584212796299</v>
+        <v>1.532572174570447</v>
       </c>
       <c r="H2">
-        <v>0.001841882448115784</v>
+        <v>0.001207550300854704</v>
       </c>
       <c r="I2">
-        <v>0.02052333011084473</v>
+        <v>0.01442030335915501</v>
       </c>
       <c r="J2">
-        <v>0.7113562185358262</v>
+        <v>0.8209393151811923</v>
       </c>
       <c r="K2">
-        <v>0.5507351920993031</v>
+        <v>0.3977168953082604</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1423062441535734</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1572560372296437</v>
       </c>
       <c r="N2">
-        <v>0.9765210488768901</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7565980700046637</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.8693595129343521</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7266636520190062</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.061312519005185</v>
+        <v>2.079973030133601</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001330048134410289</v>
+        <v>0.000943108652428748</v>
       </c>
       <c r="E3">
-        <v>1.820849634183489</v>
+        <v>1.521145486616945</v>
       </c>
       <c r="F3">
-        <v>1.190551732597754</v>
+        <v>1.280361090202362</v>
       </c>
       <c r="G3">
-        <v>1.2157806965144</v>
+        <v>1.324012130038057</v>
       </c>
       <c r="H3">
-        <v>0.003542014738988337</v>
+        <v>0.0024821322215689</v>
       </c>
       <c r="I3">
-        <v>0.02413943250597139</v>
+        <v>0.0169365780548798</v>
       </c>
       <c r="J3">
-        <v>0.6272865411559962</v>
+        <v>0.7371057475590987</v>
       </c>
       <c r="K3">
-        <v>0.5404863434274887</v>
+        <v>0.3966578423918818</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1368257816572243</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1637208553121425</v>
       </c>
       <c r="N3">
-        <v>0.8509210710483899</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6599158495691952</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7535313408159254</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6325750864574999</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.87646069714296</v>
+        <v>1.893101266667031</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002222661034604334</v>
+        <v>0.001055698183641596</v>
       </c>
       <c r="E4">
-        <v>1.674034649608927</v>
+        <v>1.391710863963183</v>
       </c>
       <c r="F4">
-        <v>1.080843460471712</v>
+        <v>1.167926755330342</v>
       </c>
       <c r="G4">
-        <v>1.09857332539363</v>
+        <v>1.198904508095893</v>
       </c>
       <c r="H4">
-        <v>0.004891050331924702</v>
+        <v>0.003515760616335045</v>
       </c>
       <c r="I4">
-        <v>0.02659161676318922</v>
+        <v>0.01866035180892034</v>
       </c>
       <c r="J4">
-        <v>0.5773102190946702</v>
+        <v>0.6863570361727511</v>
       </c>
       <c r="K4">
-        <v>0.535607079987642</v>
+        <v>0.3971784971814962</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1343989556090559</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.168140362788904</v>
       </c>
       <c r="N4">
-        <v>0.774262414049474</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6006164685507258</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.6829314607718402</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5748561132820242</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.800824242165078</v>
+        <v>1.816648516365689</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002638617555408285</v>
+        <v>0.00109784091888443</v>
       </c>
       <c r="E5">
-        <v>1.617339645543581</v>
+        <v>1.341294850065466</v>
       </c>
       <c r="F5">
-        <v>1.035741109055195</v>
+        <v>1.121771648615592</v>
       </c>
       <c r="G5">
-        <v>1.050280241589931</v>
+        <v>1.147590628194308</v>
       </c>
       <c r="H5">
-        <v>0.005510878345788893</v>
+        <v>0.003995696543787078</v>
       </c>
       <c r="I5">
-        <v>0.02773711185682259</v>
+        <v>0.01950913028249168</v>
       </c>
       <c r="J5">
-        <v>0.5566953805002868</v>
+        <v>0.6653183487472063</v>
       </c>
       <c r="K5">
-        <v>0.5354243264654528</v>
+        <v>0.3983708229027023</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1337748165161834</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1704373947030433</v>
       </c>
       <c r="N5">
-        <v>0.7442431962475098</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5768018426730066</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6551060128541195</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5516048818139367</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788013667834861</v>
+        <v>1.803748856175446</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002687637423877121</v>
+        <v>0.00109625614434794</v>
       </c>
       <c r="E6">
-        <v>1.611366318164272</v>
+        <v>1.335358431597669</v>
       </c>
       <c r="F6">
-        <v>1.027037085402455</v>
+        <v>1.113113327456261</v>
       </c>
       <c r="G6">
-        <v>1.040846444854623</v>
+        <v>1.13791909387993</v>
       </c>
       <c r="H6">
-        <v>0.005616430662188422</v>
+        <v>0.004078807928832598</v>
       </c>
       <c r="I6">
-        <v>0.02804866854140275</v>
+        <v>0.0197877706564471</v>
       </c>
       <c r="J6">
-        <v>0.5525414825184924</v>
+        <v>0.6612041483029429</v>
       </c>
       <c r="K6">
-        <v>0.5372188797213511</v>
+        <v>0.3994446206378264</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1338505914671764</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1713007761353893</v>
       </c>
       <c r="N6">
-        <v>0.7406331513320197</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5732641123319837</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.6515029759649309</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.548063582107595</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.874771421760215</v>
+        <v>1.891686638145529</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0002163883502557251</v>
+        <v>0.00100597172476169</v>
       </c>
       <c r="E7">
-        <v>1.68263640889721</v>
+        <v>1.395455048872392</v>
       </c>
       <c r="F7">
-        <v>1.07681702175033</v>
+        <v>1.160664023966376</v>
       </c>
       <c r="G7">
-        <v>1.093952128835127</v>
+        <v>1.198977273383576</v>
       </c>
       <c r="H7">
-        <v>0.004895017178962071</v>
+        <v>0.003527669388780547</v>
       </c>
       <c r="I7">
-        <v>0.02691190199854532</v>
+        <v>0.01902754340508217</v>
       </c>
       <c r="J7">
-        <v>0.5749785061021555</v>
+        <v>0.6730803224120905</v>
       </c>
       <c r="K7">
-        <v>0.5405620715277308</v>
+        <v>0.399952513203111</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1349773761483011</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1696417423428045</v>
       </c>
       <c r="N7">
-        <v>0.777601157428137</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6014338144945626</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.6845006784690781</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5751551077756289</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.257332985854305</v>
+        <v>2.278711603051477</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.85814529912021E-05</v>
+        <v>0.0007255120067015675</v>
       </c>
       <c r="E8">
-        <v>1.991355150370538</v>
+        <v>1.662087213435967</v>
       </c>
       <c r="F8">
-        <v>1.305498881031596</v>
+        <v>1.385667021621714</v>
       </c>
       <c r="G8">
-        <v>1.338127257112944</v>
+        <v>1.469139288015384</v>
       </c>
       <c r="H8">
-        <v>0.002356759580694878</v>
+        <v>0.001604029022638509</v>
       </c>
       <c r="I8">
-        <v>0.02208534563955933</v>
+        <v>0.01568986977237063</v>
       </c>
       <c r="J8">
-        <v>0.6792874302049654</v>
+        <v>0.7521172454513874</v>
       </c>
       <c r="K8">
-        <v>0.5536483798428264</v>
+        <v>0.4018115325023857</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1414983978086042</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1616237950376238</v>
       </c>
       <c r="N8">
-        <v>0.9380953385699797</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7247607443299628</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.8302308645244239</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6944934859141725</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.00628687760144</v>
+        <v>3.034315401344998</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.934683192505453E-05</v>
+        <v>0.000461454134708994</v>
       </c>
       <c r="E9">
-        <v>2.594942020853921</v>
+        <v>2.195616661071114</v>
       </c>
       <c r="F9">
-        <v>1.787321687200432</v>
+        <v>1.867834510514811</v>
       </c>
       <c r="G9">
-        <v>1.853087642687427</v>
+        <v>2.01863442763414</v>
       </c>
       <c r="H9">
-        <v>6.902260792356757E-05</v>
+        <v>1.286788689666696E-05</v>
       </c>
       <c r="I9">
-        <v>0.01413560072043296</v>
+        <v>0.01010244090237045</v>
       </c>
       <c r="J9">
-        <v>0.902918694711957</v>
+        <v>0.9575334281435062</v>
       </c>
       <c r="K9">
-        <v>0.5819477654146894</v>
+        <v>0.4090850191123927</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1601932237331241</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1467842206340286</v>
       </c>
       <c r="N9">
-        <v>1.250357372732338</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9653418108052136</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.118615942725711</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9284992284943954</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.559114244885052</v>
+        <v>3.592720838175865</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0003437520329128141</v>
+        <v>0.0002172896908088084</v>
       </c>
       <c r="E10">
-        <v>3.114268702417263</v>
+        <v>2.631584422528135</v>
       </c>
       <c r="F10">
-        <v>2.143432748671415</v>
+        <v>2.200412814154504</v>
       </c>
       <c r="G10">
-        <v>2.231817955461054</v>
+        <v>2.4509355455844</v>
       </c>
       <c r="H10">
-        <v>0.0005722060275319407</v>
+        <v>0.0006357851405294213</v>
       </c>
       <c r="I10">
-        <v>0.009881528369896309</v>
+        <v>0.007295210863838442</v>
       </c>
       <c r="J10">
-        <v>1.067490850943159</v>
+        <v>1.038342788727078</v>
       </c>
       <c r="K10">
-        <v>0.63699447273315</v>
+        <v>0.4369257112435534</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1846710499763837</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1444227930550248</v>
       </c>
       <c r="N10">
-        <v>1.46581053276384</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.137632386600032</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.307659794665341</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.092721890195037</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.840388244662336</v>
+        <v>3.885069189966089</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001344538898790049</v>
+        <v>0.0001852634982726364</v>
       </c>
       <c r="E11">
-        <v>3.917644103697569</v>
+        <v>3.212371975051241</v>
       </c>
       <c r="F11">
-        <v>2.135601261345698</v>
+        <v>2.172812958818312</v>
       </c>
       <c r="G11">
-        <v>2.20665952154917</v>
+        <v>2.524360261750019</v>
       </c>
       <c r="H11">
-        <v>0.01948817507212652</v>
+        <v>0.01940730666674995</v>
       </c>
       <c r="I11">
-        <v>0.008891911679106634</v>
+        <v>0.007060213519394232</v>
       </c>
       <c r="J11">
-        <v>1.041555906846668</v>
+        <v>0.8882580743293147</v>
       </c>
       <c r="K11">
-        <v>0.9212187523440036</v>
+        <v>0.5895683156715634</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2496780969706265</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1945464105640866</v>
       </c>
       <c r="N11">
-        <v>1.403301452315162</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.165737410974543</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.196506109256489</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.10294940758763</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.963415090821286</v>
+        <v>4.015839137837872</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.003121604234461728</v>
+        <v>0.001101597500721141</v>
       </c>
       <c r="E12">
-        <v>4.529585736389208</v>
+        <v>3.643495564439718</v>
       </c>
       <c r="F12">
-        <v>2.05903531863872</v>
+        <v>2.097339704061184</v>
       </c>
       <c r="G12">
-        <v>2.11308156115723</v>
+        <v>2.483076600679055</v>
       </c>
       <c r="H12">
-        <v>0.05832680267616297</v>
+        <v>0.05812890805488991</v>
       </c>
       <c r="I12">
-        <v>0.008273760041978662</v>
+        <v>0.006745873663843938</v>
       </c>
       <c r="J12">
-        <v>0.9883949211884726</v>
+        <v>0.7910115035827801</v>
       </c>
       <c r="K12">
-        <v>1.194450520224024</v>
+        <v>0.7340980651455169</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3075960626564722</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.245121704795686</v>
       </c>
       <c r="N12">
-        <v>1.3008840469262</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.15027347166459</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.066933028707155</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.075698189418823</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.96927210323787</v>
+        <v>4.027191517422011</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.005499962934896629</v>
+        <v>0.002304729219885004</v>
       </c>
       <c r="E13">
-        <v>5.036781261253424</v>
+        <v>3.999204250526361</v>
       </c>
       <c r="F13">
-        <v>1.917295824302016</v>
+        <v>1.983185122749461</v>
       </c>
       <c r="G13">
-        <v>1.952529462697214</v>
+        <v>2.333610698736891</v>
       </c>
       <c r="H13">
-        <v>0.1140138012366663</v>
+        <v>0.1137649639116773</v>
       </c>
       <c r="I13">
-        <v>0.008261243588100875</v>
+        <v>0.006815478550043608</v>
       </c>
       <c r="J13">
-        <v>0.9066717492536327</v>
+        <v>0.7430086567727585</v>
       </c>
       <c r="K13">
-        <v>1.478018596724354</v>
+        <v>0.8777027806498054</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3606975146457287</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2992320774980044</v>
       </c>
       <c r="N13">
-        <v>1.168691061321397</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.10233284393891</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.9226073094875744</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.020318088222837</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.919908524262382</v>
+        <v>3.980722920263986</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.007549906862388767</v>
+        <v>0.003202526383185855</v>
       </c>
       <c r="E14">
-        <v>5.351636365452265</v>
+        <v>4.219560073091458</v>
       </c>
       <c r="F14">
-        <v>1.788634171277153</v>
+        <v>1.884392601243334</v>
       </c>
       <c r="G14">
-        <v>1.810081252723819</v>
+        <v>2.181508746792417</v>
       </c>
       <c r="H14">
-        <v>0.1632193013430197</v>
+        <v>0.1629700148907602</v>
       </c>
       <c r="I14">
-        <v>0.008603740704742791</v>
+        <v>0.00714182825215115</v>
       </c>
       <c r="J14">
-        <v>0.8365780101887594</v>
+        <v>0.7279228171783245</v>
       </c>
       <c r="K14">
-        <v>1.688098665426679</v>
+        <v>0.9802356335521694</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3960466259909836</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3401692338506095</v>
       </c>
       <c r="N14">
-        <v>1.065006306615516</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.05464083659944</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.8169722906055483</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9693037379723606</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.88232327630368</v>
+        <v>3.943413698583754</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008067367112426282</v>
+        <v>0.003353466452665543</v>
       </c>
       <c r="E15">
-        <v>5.402395541667602</v>
+        <v>4.255080396261405</v>
       </c>
       <c r="F15">
-        <v>1.742302060698009</v>
+        <v>1.85016769456837</v>
       </c>
       <c r="G15">
-        <v>1.75967757951193</v>
+        <v>2.121824891373876</v>
       </c>
       <c r="H15">
-        <v>0.1756248558951796</v>
+        <v>0.1753955964946101</v>
       </c>
       <c r="I15">
-        <v>0.00896097254314121</v>
+        <v>0.007468755994329612</v>
       </c>
       <c r="J15">
-        <v>0.8127208232012606</v>
+        <v>0.7312891431691355</v>
       </c>
       <c r="K15">
-        <v>1.737941044833022</v>
+        <v>1.003122660120056</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4027107236701681</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3504042970224219</v>
       </c>
       <c r="N15">
-        <v>1.034673847774968</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.036754706420595</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.7882333079526234</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9513460971629186</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.640363307851942</v>
+        <v>3.696866393407049</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.00723656548725593</v>
+        <v>0.002424760441599005</v>
       </c>
       <c r="E16">
-        <v>5.060680906636946</v>
+        <v>4.012158358616887</v>
       </c>
       <c r="F16">
-        <v>1.611217051203212</v>
+        <v>1.757962723458533</v>
       </c>
       <c r="G16">
-        <v>1.622142243278319</v>
+        <v>1.924980149811603</v>
       </c>
       <c r="H16">
-        <v>0.1622457984834398</v>
+        <v>0.1621796142118228</v>
       </c>
       <c r="I16">
-        <v>0.01075206175091115</v>
+        <v>0.008735006886023022</v>
       </c>
       <c r="J16">
-        <v>0.7547808900470727</v>
+        <v>0.7908030567089099</v>
       </c>
       <c r="K16">
-        <v>1.645577539396555</v>
+        <v>0.9445159345655441</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3707207069593466</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3375310957053159</v>
       </c>
       <c r="N16">
-        <v>0.9747640553947861</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9741755938076722</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.7483770379302257</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8962817160254772</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.481754259122852</v>
+        <v>3.533351246622772</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.005483522153745923</v>
+        <v>0.00148261713965514</v>
       </c>
       <c r="E17">
-        <v>4.631199237079898</v>
+        <v>3.70255042832585</v>
       </c>
       <c r="F17">
-        <v>1.580270710765518</v>
+        <v>1.735599116589654</v>
       </c>
       <c r="G17">
-        <v>1.593519626332863</v>
+        <v>1.86151263560339</v>
       </c>
       <c r="H17">
-        <v>0.1242036353487777</v>
+        <v>0.1241950972439128</v>
       </c>
       <c r="I17">
-        <v>0.01204380099142632</v>
+        <v>0.009602787261579593</v>
       </c>
       <c r="J17">
-        <v>0.7482171486524294</v>
+        <v>0.8323659202547162</v>
       </c>
       <c r="K17">
-        <v>1.462066403100195</v>
+        <v>0.847713003911764</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.329326560981265</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.306065025625557</v>
       </c>
       <c r="N17">
-        <v>0.9832578379109407</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9515013498197149</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.7721201116002874</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8806550516906455</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.377368849799268</v>
+        <v>3.422919116984588</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.003128214010098773</v>
+        <v>0.0005438117712888157</v>
       </c>
       <c r="E18">
-        <v>4.090969827800308</v>
+        <v>3.315167933725661</v>
       </c>
       <c r="F18">
-        <v>1.633808833623277</v>
+        <v>1.780482731199712</v>
       </c>
       <c r="G18">
-        <v>1.658237411661844</v>
+        <v>1.89744676999635</v>
       </c>
       <c r="H18">
-        <v>0.07133678378121289</v>
+        <v>0.0713363455234699</v>
       </c>
       <c r="I18">
-        <v>0.01259670900768484</v>
+        <v>0.009756467675503089</v>
       </c>
       <c r="J18">
-        <v>0.7864573104736223</v>
+        <v>0.8852203819312194</v>
       </c>
       <c r="K18">
-        <v>1.194765603073776</v>
+        <v>0.7123156990639856</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2771395242177377</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2568342741359473</v>
       </c>
       <c r="N18">
-        <v>1.050320140172971</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9593139020428652</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.8561313320265924</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8968896971761211</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.322992619959336</v>
+        <v>3.36228568884377</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.00123611813503377</v>
+        <v>4.162222017578543E-05</v>
       </c>
       <c r="E19">
-        <v>3.55942628947966</v>
+        <v>2.934737820706175</v>
       </c>
       <c r="F19">
-        <v>1.747611185168935</v>
+        <v>1.87542000773557</v>
       </c>
       <c r="G19">
-        <v>1.790098931525392</v>
+        <v>2.003025046479394</v>
       </c>
       <c r="H19">
-        <v>0.02616005623599449</v>
+        <v>0.02616112208573185</v>
       </c>
       <c r="I19">
-        <v>0.01297045708747291</v>
+        <v>0.009950643770245904</v>
       </c>
       <c r="J19">
-        <v>0.8559176181786086</v>
+        <v>0.9499270281029908</v>
       </c>
       <c r="K19">
-        <v>0.931653683513268</v>
+        <v>0.5813360236321188</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.229056756345372</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2069963759972708</v>
       </c>
       <c r="N19">
-        <v>1.169307766442671</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.993146129512823</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.9934206291032126</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.939570993097</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.411956809651429</v>
+        <v>3.444095472398601</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0002501362447744349</v>
+        <v>0.0002811345439410751</v>
       </c>
       <c r="E20">
-        <v>3.00954258525411</v>
+        <v>2.548094821554969</v>
       </c>
       <c r="F20">
-        <v>2.036541230555628</v>
+        <v>2.116627745429994</v>
       </c>
       <c r="G20">
-        <v>2.116968324587731</v>
+        <v>2.309575149553297</v>
       </c>
       <c r="H20">
-        <v>0.0002728032093970434</v>
+        <v>0.000339921285242184</v>
       </c>
       <c r="I20">
-        <v>0.01178163753573891</v>
+        <v>0.008996146206703415</v>
       </c>
       <c r="J20">
-        <v>1.016389169132708</v>
+        <v>1.051545988571718</v>
       </c>
       <c r="K20">
-        <v>0.6403906544322453</v>
+        <v>0.4375173628901194</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1809035654426019</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1481188731754024</v>
       </c>
       <c r="N20">
-        <v>1.420069830042905</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.095697851290367</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.268756463965104</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.05300915394978</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.831463796707794</v>
+        <v>3.868994316509259</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0005807165501474643</v>
+        <v>6.28495858634448E-05</v>
       </c>
       <c r="E21">
-        <v>3.318121773874168</v>
+        <v>2.773048537895647</v>
       </c>
       <c r="F21">
-        <v>2.352976993669856</v>
+        <v>2.330777084968091</v>
       </c>
       <c r="G21">
-        <v>2.457104888080437</v>
+        <v>2.764387580833187</v>
       </c>
       <c r="H21">
-        <v>0.001221859201327266</v>
+        <v>0.001179968422216238</v>
       </c>
       <c r="I21">
-        <v>0.008774152050672335</v>
+        <v>0.006986957552311601</v>
       </c>
       <c r="J21">
-        <v>1.167798326904744</v>
+        <v>0.9271284997086298</v>
       </c>
       <c r="K21">
-        <v>0.6456581510025288</v>
+        <v>0.4501644235717706</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1975682418052997</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1427001841893478</v>
       </c>
       <c r="N21">
-        <v>1.614369007074146</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.236770963644219</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.431867654208844</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.18463668128102</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.108515789964599</v>
+        <v>4.149783568658904</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0008773393824514919</v>
+        <v>6.908026778429388E-05</v>
       </c>
       <c r="E22">
-        <v>3.540646324421203</v>
+        <v>2.931645626182899</v>
       </c>
       <c r="F22">
-        <v>2.561030552981151</v>
+        <v>2.464312679002532</v>
       </c>
       <c r="G22">
-        <v>2.680325979809936</v>
+        <v>3.072965190252035</v>
       </c>
       <c r="H22">
-        <v>0.00240949784246506</v>
+        <v>0.002154495410629828</v>
       </c>
       <c r="I22">
-        <v>0.006804929435561213</v>
+        <v>0.005507913749346116</v>
       </c>
       <c r="J22">
-        <v>1.267133837916731</v>
+        <v>0.8387716250411188</v>
       </c>
       <c r="K22">
-        <v>0.655648125931684</v>
+        <v>0.4628672593306291</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.210594236781688</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1407909959856291</v>
       </c>
       <c r="N22">
-        <v>1.727486151587186</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.324761221723961</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.522401321601137</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.265520884021555</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.961416339204504</v>
+        <v>4.000154742915868</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0007099083581294519</v>
+        <v>6.106305752795471E-05</v>
       </c>
       <c r="E23">
-        <v>3.409979549573848</v>
+        <v>2.844836349213608</v>
       </c>
       <c r="F23">
-        <v>2.453275209741278</v>
+        <v>2.406333363545841</v>
       </c>
       <c r="G23">
-        <v>2.565061188510384</v>
+        <v>2.899626503845809</v>
       </c>
       <c r="H23">
-        <v>0.001720998277404975</v>
+        <v>0.001604780332435538</v>
       </c>
       <c r="I23">
-        <v>0.007491336041293373</v>
+        <v>0.005870183768249326</v>
       </c>
       <c r="J23">
-        <v>1.216118364177561</v>
+        <v>0.9130239744783637</v>
       </c>
       <c r="K23">
-        <v>0.6435023108581674</v>
+        <v>0.4507860505661156</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2015366172782898</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1399153623086988</v>
       </c>
       <c r="N23">
-        <v>1.662490207417108</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.276392376595524</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.473031713080019</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.22203624640504</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.403644608875823</v>
+        <v>3.434845321542582</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0002447195115267142</v>
+        <v>0.0003747139334149274</v>
       </c>
       <c r="E24">
-        <v>2.941176720404997</v>
+        <v>2.498060517628446</v>
       </c>
       <c r="F24">
-        <v>2.05340207538498</v>
+        <v>2.130350547287676</v>
       </c>
       <c r="G24">
-        <v>2.137057576550319</v>
+        <v>2.32413032189433</v>
       </c>
       <c r="H24">
-        <v>0.0001600448922308151</v>
+        <v>0.0002338340218044077</v>
       </c>
       <c r="I24">
-        <v>0.01125948887524952</v>
+        <v>0.008349918986433558</v>
       </c>
       <c r="J24">
-        <v>1.026998212469692</v>
+        <v>1.06227962234729</v>
       </c>
       <c r="K24">
-        <v>0.6114578847685408</v>
+        <v>0.4224341017785207</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1752028100517613</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1425374333140894</v>
       </c>
       <c r="N24">
-        <v>1.425363874087367</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.096001592392099</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.278847109403699</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.054914945860354</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.802611471032151</v>
+        <v>2.829032946059442</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.028621135230502E-05</v>
+        <v>0.0005117773960456873</v>
       </c>
       <c r="E25">
-        <v>2.446973130207184</v>
+        <v>2.065038154711331</v>
       </c>
       <c r="F25">
-        <v>1.647203359928795</v>
+        <v>1.735081113048921</v>
       </c>
       <c r="G25">
-        <v>1.702738011672835</v>
+        <v>1.854494763975964</v>
       </c>
       <c r="H25">
-        <v>0.0003591829926001128</v>
+        <v>0.000174191809109242</v>
       </c>
       <c r="I25">
-        <v>0.01655485832630799</v>
+        <v>0.01201857255083461</v>
       </c>
       <c r="J25">
-        <v>0.8367243188397424</v>
+        <v>0.9141689914387428</v>
       </c>
       <c r="K25">
-        <v>0.5825714091387724</v>
+        <v>0.4105535142567334</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1558098142961519</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1522538132340863</v>
       </c>
       <c r="N25">
-        <v>1.17219792805173</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9022164130392198</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.046335599735471</v>
       </c>
       <c r="Q25">
+        <v>0.8670780425553843</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
